--- a/test.xlsx
+++ b/test.xlsx
@@ -404,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K313"/>
+  <dimension ref="A1:K316"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11365,6 +11365,111 @@
         <v>0.0199</v>
       </c>
     </row>
+    <row r="314" spans="1:11">
+      <c r="A314">
+        <v>49.6</v>
+      </c>
+      <c r="B314">
+        <v>149.4</v>
+      </c>
+      <c r="C314">
+        <v>0.3108</v>
+      </c>
+      <c r="D314">
+        <v>0.44</v>
+      </c>
+      <c r="E314">
+        <v>2.72</v>
+      </c>
+      <c r="F314">
+        <v>0.36</v>
+      </c>
+      <c r="G314">
+        <v>5.52</v>
+      </c>
+      <c r="H314">
+        <v>0.0077</v>
+      </c>
+      <c r="I314">
+        <v>0.0065</v>
+      </c>
+      <c r="J314">
+        <v>0.0002</v>
+      </c>
+      <c r="K314">
+        <v>0.0202</v>
+      </c>
+    </row>
+    <row r="315" spans="1:11">
+      <c r="A315">
+        <v>49.8</v>
+      </c>
+      <c r="B315">
+        <v>140.79</v>
+      </c>
+      <c r="C315">
+        <v>0.3099</v>
+      </c>
+      <c r="D315">
+        <v>0.45</v>
+      </c>
+      <c r="E315">
+        <v>2.73</v>
+      </c>
+      <c r="F315">
+        <v>0.36</v>
+      </c>
+      <c r="G315">
+        <v>5.54</v>
+      </c>
+      <c r="H315">
+        <v>0.0079</v>
+      </c>
+      <c r="I315">
+        <v>0.0065</v>
+      </c>
+      <c r="J315">
+        <v>0.0003</v>
+      </c>
+      <c r="K315">
+        <v>0.0205</v>
+      </c>
+    </row>
+    <row r="316" spans="1:11">
+      <c r="A316">
+        <v>50</v>
+      </c>
+      <c r="B316">
+        <v>132.27</v>
+      </c>
+      <c r="C316">
+        <v>0.3093</v>
+      </c>
+      <c r="D316">
+        <v>0.47</v>
+      </c>
+      <c r="E316">
+        <v>2.74</v>
+      </c>
+      <c r="F316">
+        <v>0.35</v>
+      </c>
+      <c r="G316">
+        <v>5.56</v>
+      </c>
+      <c r="H316">
+        <v>0.0081</v>
+      </c>
+      <c r="I316">
+        <v>0.0065</v>
+      </c>
+      <c r="J316">
+        <v>0.0003</v>
+      </c>
+      <c r="K316">
+        <v>0.0208</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/test.xlsx
+++ b/test.xlsx
@@ -7,19 +7,219 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Header" sheetId="2" r:id="rId2"/>
+    <sheet name="Metadata" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>Column_1</t>
-  </si>
-  <si>
-    <t>Coulmn_2</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="68">
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Direction</t>
+  </si>
+  <si>
+    <t>Connect</t>
+  </si>
+  <si>
+    <t>magS11</t>
+  </si>
+  <si>
+    <t>argS11</t>
+  </si>
+  <si>
+    <t>magS21</t>
+  </si>
+  <si>
+    <t>argS21</t>
+  </si>
+  <si>
+    <t>magS22</t>
+  </si>
+  <si>
+    <t>argS22</t>
+  </si>
+  <si>
+    <t>Header_Line_Content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HP8510      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">L </t>
+  </si>
+  <si>
+    <t xml:space="preserve">          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-port         </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9 Sep 2015    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:31:55  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEASLP    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">150122    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BFR       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">c050211.a2     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">               </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHECK STANDARD 20 dB ATTEN                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTN208              </t>
+  </si>
+  <si>
+    <t>Property</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Connector_Type_Calibration</t>
+  </si>
+  <si>
+    <t>Number_Connects</t>
+  </si>
+  <si>
+    <t>Connector_Type_Measurement</t>
+  </si>
+  <si>
+    <t>Number_Repeats</t>
+  </si>
+  <si>
+    <t>Operator</t>
+  </si>
+  <si>
+    <t>Number_Frequencies</t>
+  </si>
+  <si>
+    <t>Start_Frequency</t>
+  </si>
+  <si>
+    <t>Measurement_Date</t>
+  </si>
+  <si>
+    <t>Program_Used</t>
+  </si>
+  <si>
+    <t>Measurement_Type</t>
+  </si>
+  <si>
+    <t>System_Id</t>
+  </si>
+  <si>
+    <t>Nbs</t>
+  </si>
+  <si>
+    <t>Device_Id</t>
+  </si>
+  <si>
+    <t>Measurement_Time</t>
+  </si>
+  <si>
+    <t>Program_Revision</t>
+  </si>
+  <si>
+    <t>Port_Used</t>
+  </si>
+  <si>
+    <t>Calibration_Date</t>
+  </si>
+  <si>
+    <t>Device_Description</t>
+  </si>
+  <si>
+    <t>Calibration_Name</t>
+  </si>
+  <si>
+    <t>System_Letter</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>BFR</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>9 Sep 2015</t>
+  </si>
+  <si>
+    <t>MEASLP</t>
+  </si>
+  <si>
+    <t>2-port</t>
+  </si>
+  <si>
+    <t>HP8510</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>CTN208</t>
+  </si>
+  <si>
+    <t>10:31:55</t>
+  </si>
+  <si>
+    <t>150122</t>
+  </si>
+  <si>
+    <t>CHECK STANDARD 20 dB ATTEN</t>
+  </si>
+  <si>
+    <t>c050211.a2</t>
+  </si>
+  <si>
+    <t>L</t>
   </si>
 </sst>
 </file>
@@ -377,26 +577,4943 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:I160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
+        <v>0.1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0.0154</v>
+      </c>
+      <c r="E2">
+        <v>169.133</v>
+      </c>
+      <c r="F2">
+        <v>0.103905610880876</v>
+      </c>
+      <c r="G2">
+        <v>-7.217</v>
+      </c>
+      <c r="H2">
+        <v>0.00485</v>
+      </c>
+      <c r="I2">
+        <v>154.908</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
+        <v>0.1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>0.0154</v>
+      </c>
+      <c r="E3">
+        <v>169.077</v>
+      </c>
+      <c r="F3">
+        <v>0.103900586720622</v>
+      </c>
+      <c r="G3">
+        <v>-7.214</v>
+      </c>
+      <c r="H3">
+        <v>0.00485</v>
+      </c>
+      <c r="I3">
+        <v>155.141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
+        <v>0.1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>0.01543</v>
+      </c>
+      <c r="E4">
+        <v>169.124</v>
+      </c>
+      <c r="F4">
+        <v>0.103912190505732</v>
+      </c>
+      <c r="G4">
+        <v>-7.215</v>
+      </c>
+      <c r="H4">
+        <v>0.00484</v>
+      </c>
+      <c r="I4">
+        <v>155.075</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
+        <v>0.15</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0.01481</v>
+      </c>
+      <c r="E5">
+        <v>168.127</v>
+      </c>
+      <c r="F5">
+        <v>0.103890658737377</v>
+      </c>
+      <c r="G5">
+        <v>-10.792</v>
+      </c>
+      <c r="H5">
+        <v>0.00478</v>
+      </c>
+      <c r="I5">
+        <v>134.684</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
+        <v>0.15</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>0.01481</v>
+      </c>
+      <c r="E6">
+        <v>168.035</v>
+      </c>
+      <c r="F6">
+        <v>0.103882525674949</v>
+      </c>
+      <c r="G6">
+        <v>-10.792</v>
+      </c>
+      <c r="H6">
+        <v>0.00477</v>
+      </c>
+      <c r="I6">
+        <v>134.945</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>0.15</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>0.01484</v>
+      </c>
+      <c r="E7">
+        <v>168.094</v>
+      </c>
+      <c r="F7">
+        <v>0.103889941088609</v>
+      </c>
+      <c r="G7">
+        <v>-10.792</v>
+      </c>
+      <c r="H7">
+        <v>0.00477</v>
+      </c>
+      <c r="I7">
+        <v>134.925</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
+        <v>0.2</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0.01498</v>
+      </c>
+      <c r="E8">
+        <v>160.938</v>
+      </c>
+      <c r="F8">
+        <v>0.103875349972141</v>
+      </c>
+      <c r="G8">
+        <v>-14.363</v>
+      </c>
+      <c r="H8">
+        <v>0.00521</v>
+      </c>
+      <c r="I8">
+        <v>125.588</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
+        <v>0.2</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>0.01499</v>
+      </c>
+      <c r="E9">
+        <v>160.904</v>
+      </c>
+      <c r="F9">
+        <v>0.103865185241633</v>
+      </c>
+      <c r="G9">
+        <v>-14.364</v>
+      </c>
+      <c r="H9">
+        <v>0.0052</v>
+      </c>
+      <c r="I9">
+        <v>125.781</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
+        <v>0.2</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>0.01502</v>
+      </c>
+      <c r="E10">
+        <v>160.978</v>
+      </c>
+      <c r="F10">
+        <v>0.103871762306613</v>
+      </c>
+      <c r="G10">
+        <v>-14.364</v>
+      </c>
+      <c r="H10">
+        <v>0.0052</v>
+      </c>
+      <c r="I10">
+        <v>125.735</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
+        <v>0.25</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0.01483</v>
+      </c>
+      <c r="E11">
+        <v>158.35</v>
+      </c>
+      <c r="F11">
+        <v>0.103839478892357</v>
+      </c>
+      <c r="G11">
+        <v>-17.919</v>
+      </c>
+      <c r="H11">
+        <v>0.00557</v>
+      </c>
+      <c r="I11">
+        <v>118.262</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
+        <v>0.25</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>0.01484</v>
+      </c>
+      <c r="E12">
+        <v>158.334</v>
+      </c>
+      <c r="F12">
+        <v>0.103831469376863</v>
+      </c>
+      <c r="G12">
+        <v>-17.916</v>
+      </c>
+      <c r="H12">
+        <v>0.00556</v>
+      </c>
+      <c r="I12">
+        <v>118.475</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
+        <v>0.25</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>0.01487</v>
+      </c>
+      <c r="E13">
+        <v>158.418</v>
+      </c>
+      <c r="F13">
+        <v>0.103835892465751</v>
+      </c>
+      <c r="G13">
+        <v>-17.918</v>
+      </c>
+      <c r="H13">
+        <v>0.00556</v>
+      </c>
+      <c r="I13">
+        <v>118.471</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
+        <v>0.3</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>0.01507</v>
+      </c>
+      <c r="E14">
+        <v>153.285</v>
+      </c>
+      <c r="F14">
+        <v>0.103836848834067</v>
+      </c>
+      <c r="G14">
+        <v>-21.487</v>
+      </c>
+      <c r="H14">
+        <v>0.00621</v>
+      </c>
+      <c r="I14">
+        <v>109.372</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
+        <v>0.3</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>0.01508</v>
+      </c>
+      <c r="E15">
+        <v>153.323</v>
+      </c>
+      <c r="F15">
+        <v>0.103830034902011</v>
+      </c>
+      <c r="G15">
+        <v>-21.487</v>
+      </c>
+      <c r="H15">
+        <v>0.0062</v>
+      </c>
+      <c r="I15">
+        <v>109.614</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
+        <v>0.3</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>0.01512</v>
+      </c>
+      <c r="E16">
+        <v>153.404</v>
+      </c>
+      <c r="F16">
+        <v>0.103836968380726</v>
+      </c>
+      <c r="G16">
+        <v>-21.489</v>
+      </c>
+      <c r="H16">
+        <v>0.0062</v>
+      </c>
+      <c r="I16">
+        <v>109.557</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
+        <v>0.35</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>0.01517</v>
+      </c>
+      <c r="E17">
+        <v>149.579</v>
+      </c>
+      <c r="F17">
+        <v>0.103825372995606</v>
+      </c>
+      <c r="G17">
+        <v>-25.053</v>
+      </c>
+      <c r="H17">
+        <v>0.00687</v>
+      </c>
+      <c r="I17">
+        <v>102.455</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18">
+        <v>0.35</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>0.01518</v>
+      </c>
+      <c r="E18">
+        <v>149.693</v>
+      </c>
+      <c r="F18">
+        <v>0.103816049810738</v>
+      </c>
+      <c r="G18">
+        <v>-25.053</v>
+      </c>
+      <c r="H18">
+        <v>0.00686</v>
+      </c>
+      <c r="I18">
+        <v>102.678</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19">
+        <v>0.35</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>0.01521</v>
+      </c>
+      <c r="E19">
+        <v>149.789</v>
+      </c>
+      <c r="F19">
+        <v>0.103822982355568</v>
+      </c>
+      <c r="G19">
+        <v>-25.056</v>
+      </c>
+      <c r="H19">
+        <v>0.00685</v>
+      </c>
+      <c r="I19">
+        <v>102.649</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20">
+        <v>0.4</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>0.01536</v>
+      </c>
+      <c r="E20">
+        <v>145.764</v>
+      </c>
+      <c r="F20">
+        <v>0.103807922589058</v>
+      </c>
+      <c r="G20">
+        <v>-28.618</v>
+      </c>
+      <c r="H20">
+        <v>0.00745</v>
+      </c>
+      <c r="I20">
+        <v>96.29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21">
+        <v>0.4</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>0.01535</v>
+      </c>
+      <c r="E21">
+        <v>145.919</v>
+      </c>
+      <c r="F21">
+        <v>0.103793701482035</v>
+      </c>
+      <c r="G21">
+        <v>-28.616</v>
+      </c>
+      <c r="H21">
+        <v>0.00744</v>
+      </c>
+      <c r="I21">
+        <v>96.505</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22">
+        <v>0.4</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>0.01538</v>
+      </c>
+      <c r="E22">
+        <v>146.02</v>
+      </c>
+      <c r="F22">
+        <v>0.103804456761577</v>
+      </c>
+      <c r="G22">
+        <v>-28.619</v>
+      </c>
+      <c r="H22">
+        <v>0.00743</v>
+      </c>
+      <c r="I22">
+        <v>96.442</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23">
+        <v>0.45</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>0.01541</v>
+      </c>
+      <c r="E23">
+        <v>141.848</v>
+      </c>
+      <c r="F23">
+        <v>0.103791072583201</v>
+      </c>
+      <c r="G23">
+        <v>-32.176</v>
+      </c>
+      <c r="H23">
+        <v>0.00812</v>
+      </c>
+      <c r="I23">
+        <v>90.733</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24">
+        <v>0.45</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>0.01538</v>
+      </c>
+      <c r="E24">
+        <v>142.023</v>
+      </c>
+      <c r="F24">
+        <v>0.103782588863876</v>
+      </c>
+      <c r="G24">
+        <v>-32.175</v>
+      </c>
+      <c r="H24">
+        <v>0.0081</v>
+      </c>
+      <c r="I24">
+        <v>90.964</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25">
+        <v>0.45</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>0.01541</v>
+      </c>
+      <c r="E25">
+        <v>142.132</v>
+      </c>
+      <c r="F25">
+        <v>0.103789160698598</v>
+      </c>
+      <c r="G25">
+        <v>-32.179</v>
+      </c>
+      <c r="H25">
+        <v>0.0081</v>
+      </c>
+      <c r="I25">
+        <v>90.914</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26">
+        <v>0.5</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>0.01575</v>
+      </c>
+      <c r="E26">
+        <v>137.681</v>
+      </c>
+      <c r="F26">
+        <v>0.103780199208968</v>
+      </c>
+      <c r="G26">
+        <v>-35.734</v>
+      </c>
+      <c r="H26">
+        <v>0.00869</v>
+      </c>
+      <c r="I26">
+        <v>86.352</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27">
+        <v>0.5</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>0.01569</v>
+      </c>
+      <c r="E27">
+        <v>137.846</v>
+      </c>
+      <c r="F27">
+        <v>0.103770521669257</v>
+      </c>
+      <c r="G27">
+        <v>-35.735</v>
+      </c>
+      <c r="H27">
+        <v>0.00867</v>
+      </c>
+      <c r="I27">
+        <v>86.598</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28">
+        <v>0.5</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>0.01572</v>
+      </c>
+      <c r="E28">
+        <v>137.972</v>
+      </c>
+      <c r="F28">
+        <v>0.103777809609083</v>
+      </c>
+      <c r="G28">
+        <v>-35.738</v>
+      </c>
+      <c r="H28">
+        <v>0.00866</v>
+      </c>
+      <c r="I28">
+        <v>86.515</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29">
+        <v>0.55</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>0.01588</v>
+      </c>
+      <c r="E29">
+        <v>134.263</v>
+      </c>
+      <c r="F29">
+        <v>0.103767415489815</v>
+      </c>
+      <c r="G29">
+        <v>-39.296</v>
+      </c>
+      <c r="H29">
+        <v>0.00935</v>
+      </c>
+      <c r="I29">
+        <v>81.012</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30">
+        <v>0.55</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <v>0.01579</v>
+      </c>
+      <c r="E30">
+        <v>134.377</v>
+      </c>
+      <c r="F30">
+        <v>0.103761322869431</v>
+      </c>
+      <c r="G30">
+        <v>-39.296</v>
+      </c>
+      <c r="H30">
+        <v>0.00931</v>
+      </c>
+      <c r="I30">
+        <v>81.257</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31">
+        <v>0.55</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31">
+        <v>0.01583</v>
+      </c>
+      <c r="E31">
+        <v>134.503</v>
+      </c>
+      <c r="F31">
+        <v>0.103764548329778</v>
+      </c>
+      <c r="G31">
+        <v>-39.3</v>
+      </c>
+      <c r="H31">
+        <v>0.00931</v>
+      </c>
+      <c r="I31">
+        <v>81.163</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32">
+        <v>0.6</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>0.01612</v>
+      </c>
+      <c r="E32">
+        <v>130.095</v>
+      </c>
+      <c r="F32">
+        <v>0.103755350059462</v>
+      </c>
+      <c r="G32">
+        <v>-42.856</v>
+      </c>
+      <c r="H32">
+        <v>0.00995</v>
+      </c>
+      <c r="I32">
+        <v>76.857</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33">
+        <v>0.6</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <v>0.01603</v>
+      </c>
+      <c r="E33">
+        <v>130.136</v>
+      </c>
+      <c r="F33">
+        <v>0.103749138701811</v>
+      </c>
+      <c r="G33">
+        <v>-42.856</v>
+      </c>
+      <c r="H33">
+        <v>0.00991</v>
+      </c>
+      <c r="I33">
+        <v>77.026</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34">
+        <v>0.6</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34">
+        <v>0.01606</v>
+      </c>
+      <c r="E34">
+        <v>130.265</v>
+      </c>
+      <c r="F34">
+        <v>0.103750213717871</v>
+      </c>
+      <c r="G34">
+        <v>-42.861</v>
+      </c>
+      <c r="H34">
+        <v>0.0099</v>
+      </c>
+      <c r="I34">
+        <v>76.963</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35">
+        <v>0.65</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>0.01635</v>
+      </c>
+      <c r="E35">
+        <v>127.111</v>
+      </c>
+      <c r="F35">
+        <v>0.103746033162429</v>
+      </c>
+      <c r="G35">
+        <v>-46.406</v>
+      </c>
+      <c r="H35">
+        <v>0.01047</v>
+      </c>
+      <c r="I35">
+        <v>72.336</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36">
+        <v>0.65</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36">
+        <v>0.01624</v>
+      </c>
+      <c r="E36">
+        <v>127.061</v>
+      </c>
+      <c r="F36">
+        <v>0.103738389153826</v>
+      </c>
+      <c r="G36">
+        <v>-46.406</v>
+      </c>
+      <c r="H36">
+        <v>0.01043</v>
+      </c>
+      <c r="I36">
+        <v>72.505</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37">
+        <v>0.65</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>3</v>
+      </c>
+      <c r="D37">
+        <v>0.01627</v>
+      </c>
+      <c r="E37">
+        <v>127.194</v>
+      </c>
+      <c r="F37">
+        <v>0.103741852775439</v>
+      </c>
+      <c r="G37">
+        <v>-46.395</v>
+      </c>
+      <c r="H37">
+        <v>0.01043</v>
+      </c>
+      <c r="I37">
+        <v>72.385</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38">
+        <v>0.7</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>0.01659</v>
+      </c>
+      <c r="E38">
+        <v>123.319</v>
+      </c>
+      <c r="F38">
+        <v>0.103729432047975</v>
+      </c>
+      <c r="G38">
+        <v>-49.962</v>
+      </c>
+      <c r="H38">
+        <v>0.01118</v>
+      </c>
+      <c r="I38">
+        <v>68.649</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39">
+        <v>0.7</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>0.01648</v>
+      </c>
+      <c r="E39">
+        <v>123.155</v>
+      </c>
+      <c r="F39">
+        <v>0.103729193202406</v>
+      </c>
+      <c r="G39">
+        <v>-49.942</v>
+      </c>
+      <c r="H39">
+        <v>0.01113</v>
+      </c>
+      <c r="I39">
+        <v>68.8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40">
+        <v>0.7</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40">
+        <v>0.01651</v>
+      </c>
+      <c r="E40">
+        <v>123.276</v>
+      </c>
+      <c r="F40">
+        <v>0.103722625164771</v>
+      </c>
+      <c r="G40">
+        <v>-49.951</v>
+      </c>
+      <c r="H40">
+        <v>0.01113</v>
+      </c>
+      <c r="I40">
+        <v>68.704</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41">
+        <v>0.75</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>0.01689</v>
+      </c>
+      <c r="E41">
+        <v>119.735</v>
+      </c>
+      <c r="F41">
+        <v>0.103718565131336</v>
+      </c>
+      <c r="G41">
+        <v>-53.502</v>
+      </c>
+      <c r="H41">
+        <v>0.01167</v>
+      </c>
+      <c r="I41">
+        <v>64.889</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42">
+        <v>0.75</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42">
+        <v>0.0168</v>
+      </c>
+      <c r="E42">
+        <v>119.493</v>
+      </c>
+      <c r="F42">
+        <v>0.103704475659909</v>
+      </c>
+      <c r="G42">
+        <v>-53.524</v>
+      </c>
+      <c r="H42">
+        <v>0.01162</v>
+      </c>
+      <c r="I42">
+        <v>65.008</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43">
+        <v>0.75</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>3</v>
+      </c>
+      <c r="D43">
+        <v>0.01682</v>
+      </c>
+      <c r="E43">
+        <v>119.625</v>
+      </c>
+      <c r="F43">
+        <v>0.103711161950079</v>
+      </c>
+      <c r="G43">
+        <v>-53.491</v>
+      </c>
+      <c r="H43">
+        <v>0.01161</v>
+      </c>
+      <c r="I43">
+        <v>64.887</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44">
+        <v>0.8</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>0.01726</v>
+      </c>
+      <c r="E44">
+        <v>116.433</v>
+      </c>
+      <c r="F44">
+        <v>0.103693730739505</v>
+      </c>
+      <c r="G44">
+        <v>-57.061</v>
+      </c>
+      <c r="H44">
+        <v>0.01227</v>
+      </c>
+      <c r="I44">
+        <v>60.801</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45">
+        <v>0.8</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45">
+        <v>0.01719</v>
+      </c>
+      <c r="E45">
+        <v>116.134</v>
+      </c>
+      <c r="F45">
+        <v>0.103692298167569</v>
+      </c>
+      <c r="G45">
+        <v>-57.064</v>
+      </c>
+      <c r="H45">
+        <v>0.01223</v>
+      </c>
+      <c r="I45">
+        <v>60.905</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46">
+        <v>0.8</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>3</v>
+      </c>
+      <c r="D46">
+        <v>0.01721</v>
+      </c>
+      <c r="E46">
+        <v>116.243</v>
+      </c>
+      <c r="F46">
+        <v>0.103693491976141</v>
+      </c>
+      <c r="G46">
+        <v>-57.086</v>
+      </c>
+      <c r="H46">
+        <v>0.01223</v>
+      </c>
+      <c r="I46">
+        <v>60.779</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47">
+        <v>0.85</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>0.01737</v>
+      </c>
+      <c r="E47">
+        <v>113.299</v>
+      </c>
+      <c r="F47">
+        <v>0.10367606373544</v>
+      </c>
+      <c r="G47">
+        <v>-60.616</v>
+      </c>
+      <c r="H47">
+        <v>0.01277</v>
+      </c>
+      <c r="I47">
+        <v>57.283</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48">
+        <v>0.85</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48">
+        <v>0.01733</v>
+      </c>
+      <c r="E48">
+        <v>112.988</v>
+      </c>
+      <c r="F48">
+        <v>0.103669021647328</v>
+      </c>
+      <c r="G48">
+        <v>-60.619</v>
+      </c>
+      <c r="H48">
+        <v>0.01272</v>
+      </c>
+      <c r="I48">
+        <v>57.373</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49">
+        <v>0.85</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>3</v>
+      </c>
+      <c r="D49">
+        <v>0.01735</v>
+      </c>
+      <c r="E49">
+        <v>113.09</v>
+      </c>
+      <c r="F49">
+        <v>0.103672960383423</v>
+      </c>
+      <c r="G49">
+        <v>-60.624</v>
+      </c>
+      <c r="H49">
+        <v>0.01273</v>
+      </c>
+      <c r="I49">
+        <v>57.264</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50">
+        <v>0.9</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>0.01773</v>
+      </c>
+      <c r="E50">
+        <v>109.866</v>
+      </c>
+      <c r="F50">
+        <v>0.10366603785597</v>
+      </c>
+      <c r="G50">
+        <v>-64.171</v>
+      </c>
+      <c r="H50">
+        <v>0.01321</v>
+      </c>
+      <c r="I50">
+        <v>53.186</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51">
+        <v>0.9</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="D51">
+        <v>0.01771</v>
+      </c>
+      <c r="E51">
+        <v>109.588</v>
+      </c>
+      <c r="F51">
+        <v>0.103659354474964</v>
+      </c>
+      <c r="G51">
+        <v>-64.172</v>
+      </c>
+      <c r="H51">
+        <v>0.01316</v>
+      </c>
+      <c r="I51">
+        <v>53.287</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52">
+        <v>0.9</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>3</v>
+      </c>
+      <c r="D52">
+        <v>0.01774</v>
+      </c>
+      <c r="E52">
+        <v>109.686</v>
+      </c>
+      <c r="F52">
+        <v>0.103661144624054</v>
+      </c>
+      <c r="G52">
+        <v>-64.178</v>
+      </c>
+      <c r="H52">
+        <v>0.01318</v>
+      </c>
+      <c r="I52">
+        <v>53.18</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53">
+        <v>0.95</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>0.01804</v>
+      </c>
+      <c r="E53">
+        <v>106.742</v>
+      </c>
+      <c r="F53">
+        <v>0.103657803037425</v>
+      </c>
+      <c r="G53">
+        <v>-67.728</v>
+      </c>
+      <c r="H53">
+        <v>0.01385</v>
+      </c>
+      <c r="I53">
+        <v>49.839</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54">
+        <v>0.95</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>2</v>
+      </c>
+      <c r="D54">
+        <v>0.01805</v>
+      </c>
+      <c r="E54">
+        <v>106.521</v>
+      </c>
+      <c r="F54">
+        <v>0.103649807535249</v>
+      </c>
+      <c r="G54">
+        <v>-67.731</v>
+      </c>
+      <c r="H54">
+        <v>0.0138</v>
+      </c>
+      <c r="I54">
+        <v>49.937</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55">
+        <v>0.95</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <v>3</v>
+      </c>
+      <c r="D55">
+        <v>0.01808</v>
+      </c>
+      <c r="E55">
+        <v>106.615</v>
+      </c>
+      <c r="F55">
+        <v>0.103652432856015</v>
+      </c>
+      <c r="G55">
+        <v>-67.736</v>
+      </c>
+      <c r="H55">
+        <v>0.01382</v>
+      </c>
+      <c r="I55">
+        <v>49.843</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56">
+        <v>1</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>0.01836</v>
+      </c>
+      <c r="E56">
+        <v>103.485</v>
+      </c>
+      <c r="F56">
+        <v>0.10364765959499</v>
+      </c>
+      <c r="G56">
+        <v>-71.303</v>
+      </c>
+      <c r="H56">
+        <v>0.0143</v>
+      </c>
+      <c r="I56">
+        <v>46.076</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57">
+        <v>1</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>2</v>
+      </c>
+      <c r="D57">
+        <v>0.01839</v>
+      </c>
+      <c r="E57">
+        <v>103.349</v>
+      </c>
+      <c r="F57">
+        <v>0.103637636462311</v>
+      </c>
+      <c r="G57">
+        <v>-71.305</v>
+      </c>
+      <c r="H57">
+        <v>0.01425</v>
+      </c>
+      <c r="I57">
+        <v>46.186</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58">
+        <v>1</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>3</v>
+      </c>
+      <c r="D58">
+        <v>0.01843</v>
+      </c>
+      <c r="E58">
+        <v>103.463</v>
+      </c>
+      <c r="F58">
+        <v>0.103640977398835</v>
+      </c>
+      <c r="G58">
+        <v>-71.297</v>
+      </c>
+      <c r="H58">
+        <v>0.01428</v>
+      </c>
+      <c r="I58">
+        <v>46.097</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59">
+        <v>1.5</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>0.02102</v>
+      </c>
+      <c r="E59">
+        <v>73.872</v>
+      </c>
+      <c r="F59">
+        <v>0.103507781410086</v>
+      </c>
+      <c r="G59">
+        <v>-106.84</v>
+      </c>
+      <c r="H59">
+        <v>0.01956</v>
+      </c>
+      <c r="I59">
+        <v>9.693</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60">
+        <v>1.5</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>2</v>
+      </c>
+      <c r="D60">
+        <v>0.02085</v>
+      </c>
+      <c r="E60">
+        <v>73.457</v>
+      </c>
+      <c r="F60">
+        <v>0.103503729786319</v>
+      </c>
+      <c r="G60">
+        <v>-106.844</v>
+      </c>
+      <c r="H60">
+        <v>0.01947</v>
+      </c>
+      <c r="I60">
+        <v>9.834</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61">
+        <v>1.5</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61">
+        <v>3</v>
+      </c>
+      <c r="D61">
+        <v>0.02084</v>
+      </c>
+      <c r="E61">
+        <v>73.547</v>
+      </c>
+      <c r="F61">
+        <v>0.103504087276154</v>
+      </c>
+      <c r="G61">
+        <v>-106.856</v>
+      </c>
+      <c r="H61">
+        <v>0.01947</v>
+      </c>
+      <c r="I61">
+        <v>9.891</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62">
+        <v>2</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>0.02315</v>
+      </c>
+      <c r="E62">
+        <v>46.25</v>
+      </c>
+      <c r="F62">
+        <v>0.103355954005936</v>
+      </c>
+      <c r="G62">
+        <v>-142.398</v>
+      </c>
+      <c r="H62">
+        <v>0.02483</v>
+      </c>
+      <c r="I62">
+        <v>-21.17</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63">
+        <v>2</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63">
+        <v>2</v>
+      </c>
+      <c r="D63">
+        <v>0.02316</v>
+      </c>
+      <c r="E63">
+        <v>46.291</v>
+      </c>
+      <c r="F63">
+        <v>0.103350480475659</v>
+      </c>
+      <c r="G63">
+        <v>-142.39</v>
+      </c>
+      <c r="H63">
+        <v>0.02474</v>
+      </c>
+      <c r="I63">
+        <v>-21.092</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64">
+        <v>2</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64">
+        <v>3</v>
+      </c>
+      <c r="D64">
+        <v>0.02315</v>
+      </c>
+      <c r="E64">
+        <v>46.414</v>
+      </c>
+      <c r="F64">
+        <v>0.103351551360947</v>
+      </c>
+      <c r="G64">
+        <v>-142.422</v>
+      </c>
+      <c r="H64">
+        <v>0.02471</v>
+      </c>
+      <c r="I64">
+        <v>-21.129</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65">
+        <v>2.5</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>0.0245</v>
+      </c>
+      <c r="E65">
+        <v>22.178</v>
+      </c>
+      <c r="F65">
+        <v>0.103229304185608</v>
+      </c>
+      <c r="G65">
+        <v>-177.917</v>
+      </c>
+      <c r="H65">
+        <v>0.02788</v>
+      </c>
+      <c r="I65">
+        <v>-49.606</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66">
+        <v>2.5</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <v>2</v>
+      </c>
+      <c r="D66">
+        <v>0.02457</v>
+      </c>
+      <c r="E66">
+        <v>21.215</v>
+      </c>
+      <c r="F66">
+        <v>0.103227283804195</v>
+      </c>
+      <c r="G66">
+        <v>-177.941</v>
+      </c>
+      <c r="H66">
+        <v>0.02775</v>
+      </c>
+      <c r="I66">
+        <v>-49.535</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67">
+        <v>2.5</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67">
+        <v>3</v>
+      </c>
+      <c r="D67">
+        <v>0.02457</v>
+      </c>
+      <c r="E67">
+        <v>21.174</v>
+      </c>
+      <c r="F67">
+        <v>0.10322288664016</v>
+      </c>
+      <c r="G67">
+        <v>-177.961</v>
+      </c>
+      <c r="H67">
+        <v>0.02772</v>
+      </c>
+      <c r="I67">
+        <v>-49.699</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68">
+        <v>3</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>0.02349</v>
+      </c>
+      <c r="E68">
+        <v>0.37</v>
+      </c>
+      <c r="F68">
+        <v>0.103150657360917</v>
+      </c>
+      <c r="G68">
+        <v>146.51</v>
+      </c>
+      <c r="H68">
+        <v>0.02778</v>
+      </c>
+      <c r="I68">
+        <v>-81.146</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69">
+        <v>3</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69">
+        <v>2</v>
+      </c>
+      <c r="D69">
+        <v>0.02328</v>
+      </c>
+      <c r="E69">
+        <v>-0.161</v>
+      </c>
+      <c r="F69">
+        <v>0.103148519764572</v>
+      </c>
+      <c r="G69">
+        <v>146.496</v>
+      </c>
+      <c r="H69">
+        <v>0.02766</v>
+      </c>
+      <c r="I69">
+        <v>-81</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70">
+        <v>3</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70">
+        <v>3</v>
+      </c>
+      <c r="D70">
+        <v>0.02324</v>
+      </c>
+      <c r="E70">
+        <v>-0.121</v>
+      </c>
+      <c r="F70">
+        <v>0.103147213477502</v>
+      </c>
+      <c r="G70">
+        <v>146.464</v>
+      </c>
+      <c r="H70">
+        <v>0.02771</v>
+      </c>
+      <c r="I70">
+        <v>-81.153</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71">
+        <v>3.5</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>0.02157</v>
+      </c>
+      <c r="E71">
+        <v>-22.471</v>
+      </c>
+      <c r="F71">
+        <v>0.103102572156107</v>
+      </c>
+      <c r="G71">
+        <v>110.974</v>
+      </c>
+      <c r="H71">
+        <v>0.02666</v>
+      </c>
+      <c r="I71">
+        <v>-113.076</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72">
+        <v>3.5</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72">
+        <v>2</v>
+      </c>
+      <c r="D72">
+        <v>0.0219</v>
+      </c>
+      <c r="E72">
+        <v>-23.077</v>
+      </c>
+      <c r="F72">
+        <v>0.103104946207896</v>
+      </c>
+      <c r="G72">
+        <v>110.942</v>
+      </c>
+      <c r="H72">
+        <v>0.02647</v>
+      </c>
+      <c r="I72">
+        <v>-112.912</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73">
+        <v>3.5</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73">
+        <v>3</v>
+      </c>
+      <c r="D73">
+        <v>0.02193</v>
+      </c>
+      <c r="E73">
+        <v>-23.122</v>
+      </c>
+      <c r="F73">
+        <v>0.103103640472647</v>
+      </c>
+      <c r="G73">
+        <v>110.908</v>
+      </c>
+      <c r="H73">
+        <v>0.0265</v>
+      </c>
+      <c r="I73">
+        <v>-113.012</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74">
+        <v>4</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>0.01823</v>
+      </c>
+      <c r="E74">
+        <v>-43.24</v>
+      </c>
+      <c r="F74">
+        <v>0.103105777138936</v>
+      </c>
+      <c r="G74">
+        <v>75.413</v>
+      </c>
+      <c r="H74">
+        <v>0.02586</v>
+      </c>
+      <c r="I74">
+        <v>-143.72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75">
+        <v>4</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75">
+        <v>2</v>
+      </c>
+      <c r="D75">
+        <v>0.01819</v>
+      </c>
+      <c r="E75">
+        <v>-44.075</v>
+      </c>
+      <c r="F75">
+        <v>0.103113611960838</v>
+      </c>
+      <c r="G75">
+        <v>75.38</v>
+      </c>
+      <c r="H75">
+        <v>0.02564</v>
+      </c>
+      <c r="I75">
+        <v>-143.531</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76">
+        <v>4</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76">
+        <v>3</v>
+      </c>
+      <c r="D76">
+        <v>0.01815</v>
+      </c>
+      <c r="E76">
+        <v>-44.263</v>
+      </c>
+      <c r="F76">
+        <v>0.103102334753934</v>
+      </c>
+      <c r="G76">
+        <v>75.333</v>
+      </c>
+      <c r="H76">
+        <v>0.02568</v>
+      </c>
+      <c r="I76">
+        <v>-143.633</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77">
+        <v>4.5</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77">
+        <v>0.0134</v>
+      </c>
+      <c r="E77">
+        <v>-66.661</v>
+      </c>
+      <c r="F77">
+        <v>0.103112543540977</v>
+      </c>
+      <c r="G77">
+        <v>39.747</v>
+      </c>
+      <c r="H77">
+        <v>0.02197</v>
+      </c>
+      <c r="I77">
+        <v>-170.982</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78">
+        <v>4.5</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78">
+        <v>2</v>
+      </c>
+      <c r="D78">
+        <v>0.01387</v>
+      </c>
+      <c r="E78">
+        <v>-64.865</v>
+      </c>
+      <c r="F78">
+        <v>0.103110288024293</v>
+      </c>
+      <c r="G78">
+        <v>39.732</v>
+      </c>
+      <c r="H78">
+        <v>0.02171</v>
+      </c>
+      <c r="I78">
+        <v>-170.765</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79">
+        <v>4.5</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79">
+        <v>3</v>
+      </c>
+      <c r="D79">
+        <v>0.01392</v>
+      </c>
+      <c r="E79">
+        <v>-64.88</v>
+      </c>
+      <c r="F79">
+        <v>0.103114561676675</v>
+      </c>
+      <c r="G79">
+        <v>39.649</v>
+      </c>
+      <c r="H79">
+        <v>0.02179</v>
+      </c>
+      <c r="I79">
+        <v>-170.971</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80">
+        <v>5</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>0.00848</v>
+      </c>
+      <c r="E80">
+        <v>-101.959</v>
+      </c>
+      <c r="F80">
+        <v>0.103140919780762</v>
+      </c>
+      <c r="G80">
+        <v>4.102</v>
+      </c>
+      <c r="H80">
+        <v>0.01668</v>
+      </c>
+      <c r="I80">
+        <v>157.427</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81">
+        <v>5</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81">
+        <v>2</v>
+      </c>
+      <c r="D81">
+        <v>0.00906</v>
+      </c>
+      <c r="E81">
+        <v>-104.174</v>
+      </c>
+      <c r="F81">
+        <v>0.103141513509332</v>
+      </c>
+      <c r="G81">
+        <v>4.066</v>
+      </c>
+      <c r="H81">
+        <v>0.01636</v>
+      </c>
+      <c r="I81">
+        <v>157.696</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82">
+        <v>5</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82">
+        <v>3</v>
+      </c>
+      <c r="D82">
+        <v>0.0092</v>
+      </c>
+      <c r="E82">
+        <v>-104.932</v>
+      </c>
+      <c r="F82">
+        <v>0.103134270254278</v>
+      </c>
+      <c r="G82">
+        <v>3.99</v>
+      </c>
+      <c r="H82">
+        <v>0.0165</v>
+      </c>
+      <c r="I82">
+        <v>157.65</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83">
+        <v>5.5</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <v>0.0052</v>
+      </c>
+      <c r="E83">
+        <v>170.764</v>
+      </c>
+      <c r="F83">
+        <v>0.103181063526759</v>
+      </c>
+      <c r="G83">
+        <v>-31.58</v>
+      </c>
+      <c r="H83">
+        <v>0.00971</v>
+      </c>
+      <c r="I83">
+        <v>119.802</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84">
+        <v>5.5</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84">
+        <v>2</v>
+      </c>
+      <c r="D84">
+        <v>0.00479</v>
+      </c>
+      <c r="E84">
+        <v>170.814</v>
+      </c>
+      <c r="F84">
+        <v>0.103184270949523</v>
+      </c>
+      <c r="G84">
+        <v>-31.597</v>
+      </c>
+      <c r="H84">
+        <v>0.00939</v>
+      </c>
+      <c r="I84">
+        <v>119.517</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85">
+        <v>5.5</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85">
+        <v>3</v>
+      </c>
+      <c r="D85">
+        <v>0.00482</v>
+      </c>
+      <c r="E85">
+        <v>171.704</v>
+      </c>
+      <c r="F85">
+        <v>0.103177618628176</v>
+      </c>
+      <c r="G85">
+        <v>-31.665</v>
+      </c>
+      <c r="H85">
+        <v>0.00958</v>
+      </c>
+      <c r="I85">
+        <v>120.02</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86">
+        <v>6</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86">
+        <v>0.01225</v>
+      </c>
+      <c r="E86">
+        <v>101.966</v>
+      </c>
+      <c r="F86">
+        <v>0.10325414622409</v>
+      </c>
+      <c r="G86">
+        <v>-67.351</v>
+      </c>
+      <c r="H86">
+        <v>0.00348</v>
+      </c>
+      <c r="I86">
+        <v>71.304</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87">
+        <v>6</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87">
+        <v>2</v>
+      </c>
+      <c r="D87">
+        <v>0.01239</v>
+      </c>
+      <c r="E87">
+        <v>102.57</v>
+      </c>
+      <c r="F87">
+        <v>0.103256642644575</v>
+      </c>
+      <c r="G87">
+        <v>-67.41</v>
+      </c>
+      <c r="H87">
+        <v>0.00314</v>
+      </c>
+      <c r="I87">
+        <v>68.528</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88">
+        <v>6</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="C88">
+        <v>3</v>
+      </c>
+      <c r="D88">
+        <v>0.01233</v>
+      </c>
+      <c r="E88">
+        <v>103.369</v>
+      </c>
+      <c r="F88">
+        <v>0.103252838599351</v>
+      </c>
+      <c r="G88">
+        <v>-67.49</v>
+      </c>
+      <c r="H88">
+        <v>0.00315</v>
+      </c>
+      <c r="I88">
+        <v>72.248</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89">
+        <v>6.5</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89">
+        <v>0.02289</v>
+      </c>
+      <c r="E89">
+        <v>73.358</v>
+      </c>
+      <c r="F89">
+        <v>0.103289696185489</v>
+      </c>
+      <c r="G89">
+        <v>-103.142</v>
+      </c>
+      <c r="H89">
+        <v>0.0043</v>
+      </c>
+      <c r="I89">
+        <v>-93.265</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90">
+        <v>6.5</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90">
+        <v>2</v>
+      </c>
+      <c r="D90">
+        <v>0.02338</v>
+      </c>
+      <c r="E90">
+        <v>70.587</v>
+      </c>
+      <c r="F90">
+        <v>0.103296236808721</v>
+      </c>
+      <c r="G90">
+        <v>-103.211</v>
+      </c>
+      <c r="H90">
+        <v>0.00467</v>
+      </c>
+      <c r="I90">
+        <v>-93.688</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91">
+        <v>6.5</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91">
+        <v>3</v>
+      </c>
+      <c r="D91">
+        <v>0.02335</v>
+      </c>
+      <c r="E91">
+        <v>70.584</v>
+      </c>
+      <c r="F91">
+        <v>0.103289458352448</v>
+      </c>
+      <c r="G91">
+        <v>-103.326</v>
+      </c>
+      <c r="H91">
+        <v>0.00456</v>
+      </c>
+      <c r="I91">
+        <v>-95.318</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92">
+        <v>7</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92">
+        <v>0.03515</v>
+      </c>
+      <c r="E92">
+        <v>50.911</v>
+      </c>
+      <c r="F92">
+        <v>0.103303848237134</v>
+      </c>
+      <c r="G92">
+        <v>-139.013</v>
+      </c>
+      <c r="H92">
+        <v>0.01328</v>
+      </c>
+      <c r="I92">
+        <v>-145.814</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93">
+        <v>7</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+      <c r="C93">
+        <v>2</v>
+      </c>
+      <c r="D93">
+        <v>0.03482</v>
+      </c>
+      <c r="E93">
+        <v>49.572</v>
+      </c>
+      <c r="F93">
+        <v>0.103310151875828</v>
+      </c>
+      <c r="G93">
+        <v>-139.082</v>
+      </c>
+      <c r="H93">
+        <v>0.01365</v>
+      </c>
+      <c r="I93">
+        <v>-145.565</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94">
+        <v>7</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="C94">
+        <v>3</v>
+      </c>
+      <c r="D94">
+        <v>0.03463</v>
+      </c>
+      <c r="E94">
+        <v>49.579</v>
+      </c>
+      <c r="F94">
+        <v>0.1033095571765</v>
+      </c>
+      <c r="G94">
+        <v>-139.193</v>
+      </c>
+      <c r="H94">
+        <v>0.01367</v>
+      </c>
+      <c r="I94">
+        <v>-146.377</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95">
+        <v>7.5</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95">
+        <v>0.04777</v>
+      </c>
+      <c r="E95">
+        <v>32.346</v>
+      </c>
+      <c r="F95">
+        <v>0.103271979123203</v>
+      </c>
+      <c r="G95">
+        <v>-174.933</v>
+      </c>
+      <c r="H95">
+        <v>0.02323</v>
+      </c>
+      <c r="I95">
+        <v>-171.123</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96">
+        <v>7.5</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="C96">
+        <v>2</v>
+      </c>
+      <c r="D96">
+        <v>0.04781</v>
+      </c>
+      <c r="E96">
+        <v>30.884</v>
+      </c>
+      <c r="F96">
+        <v>0.103273405888177</v>
+      </c>
+      <c r="G96">
+        <v>-175.037</v>
+      </c>
+      <c r="H96">
+        <v>0.02359</v>
+      </c>
+      <c r="I96">
+        <v>-170.969</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97">
+        <v>7.5</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+      <c r="C97">
+        <v>3</v>
+      </c>
+      <c r="D97">
+        <v>0.04765</v>
+      </c>
+      <c r="E97">
+        <v>30.987</v>
+      </c>
+      <c r="F97">
+        <v>0.103271860227012</v>
+      </c>
+      <c r="G97">
+        <v>-175.144</v>
+      </c>
+      <c r="H97">
+        <v>0.02362</v>
+      </c>
+      <c r="I97">
+        <v>-171.443</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98">
+        <v>8</v>
+      </c>
+      <c r="B98">
+        <v>1</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98">
+        <v>0.06082</v>
+      </c>
+      <c r="E98">
+        <v>13.309</v>
+      </c>
+      <c r="F98">
+        <v>0.103233939327678</v>
+      </c>
+      <c r="G98">
+        <v>149.074</v>
+      </c>
+      <c r="H98">
+        <v>0.02915</v>
+      </c>
+      <c r="I98">
+        <v>159.31</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99">
+        <v>8</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+      <c r="C99">
+        <v>2</v>
+      </c>
+      <c r="D99">
+        <v>0.05998</v>
+      </c>
+      <c r="E99">
+        <v>12.552</v>
+      </c>
+      <c r="F99">
+        <v>0.103240476420213</v>
+      </c>
+      <c r="G99">
+        <v>148.963</v>
+      </c>
+      <c r="H99">
+        <v>0.02955</v>
+      </c>
+      <c r="I99">
+        <v>159.371</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100">
+        <v>8</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+      <c r="C100">
+        <v>3</v>
+      </c>
+      <c r="D100">
+        <v>0.0597</v>
+      </c>
+      <c r="E100">
+        <v>12.545</v>
+      </c>
+      <c r="F100">
+        <v>0.103221460573131</v>
+      </c>
+      <c r="G100">
+        <v>148.852</v>
+      </c>
+      <c r="H100">
+        <v>0.02971</v>
+      </c>
+      <c r="I100">
+        <v>159.029</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101">
+        <v>8.5</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="D101">
+        <v>0.07242</v>
+      </c>
+      <c r="E101">
+        <v>-5.957</v>
+      </c>
+      <c r="F101">
+        <v>0.103153863838494</v>
+      </c>
+      <c r="G101">
+        <v>113.075</v>
+      </c>
+      <c r="H101">
+        <v>0.03276</v>
+      </c>
+      <c r="I101">
+        <v>122.813</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102">
+        <v>8.5</v>
+      </c>
+      <c r="B102">
+        <v>1</v>
+      </c>
+      <c r="C102">
+        <v>2</v>
+      </c>
+      <c r="D102">
+        <v>0.07292</v>
+      </c>
+      <c r="E102">
+        <v>-5.9</v>
+      </c>
+      <c r="F102">
+        <v>0.103156714124462</v>
+      </c>
+      <c r="G102">
+        <v>112.924</v>
+      </c>
+      <c r="H102">
+        <v>0.03316</v>
+      </c>
+      <c r="I102">
+        <v>122.933</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103">
+        <v>8.5</v>
+      </c>
+      <c r="B103">
+        <v>1</v>
+      </c>
+      <c r="C103">
+        <v>3</v>
+      </c>
+      <c r="D103">
+        <v>0.07267</v>
+      </c>
+      <c r="E103">
+        <v>-5.867</v>
+      </c>
+      <c r="F103">
+        <v>0.103148757273089</v>
+      </c>
+      <c r="G103">
+        <v>112.757</v>
+      </c>
+      <c r="H103">
+        <v>0.03335</v>
+      </c>
+      <c r="I103">
+        <v>122.862</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104">
+        <v>9</v>
+      </c>
+      <c r="B104">
+        <v>1</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+      <c r="D104">
+        <v>0.08152</v>
+      </c>
+      <c r="E104">
+        <v>-23.353</v>
+      </c>
+      <c r="F104">
+        <v>0.103071951788474</v>
+      </c>
+      <c r="G104">
+        <v>76.987</v>
+      </c>
+      <c r="H104">
+        <v>0.03948</v>
+      </c>
+      <c r="I104">
+        <v>89.311</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105">
+        <v>9</v>
+      </c>
+      <c r="B105">
+        <v>1</v>
+      </c>
+      <c r="C105">
+        <v>2</v>
+      </c>
+      <c r="D105">
+        <v>0.08245</v>
+      </c>
+      <c r="E105">
+        <v>-24.828</v>
+      </c>
+      <c r="F105">
+        <v>0.103078597297009</v>
+      </c>
+      <c r="G105">
+        <v>76.836</v>
+      </c>
+      <c r="H105">
+        <v>0.03998</v>
+      </c>
+      <c r="I105">
+        <v>89.462</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106">
+        <v>9</v>
+      </c>
+      <c r="B106">
+        <v>1</v>
+      </c>
+      <c r="C106">
+        <v>3</v>
+      </c>
+      <c r="D106">
+        <v>0.08226</v>
+      </c>
+      <c r="E106">
+        <v>-25.013</v>
+      </c>
+      <c r="F106">
+        <v>0.103063645505293</v>
+      </c>
+      <c r="G106">
+        <v>76.64</v>
+      </c>
+      <c r="H106">
+        <v>0.04011</v>
+      </c>
+      <c r="I106">
+        <v>89.61</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107">
+        <v>9.5</v>
+      </c>
+      <c r="B107">
+        <v>1</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="D107">
+        <v>0.08692</v>
+      </c>
+      <c r="E107">
+        <v>-40.412</v>
+      </c>
+      <c r="F107">
+        <v>0.102977892617754</v>
+      </c>
+      <c r="G107">
+        <v>40.871</v>
+      </c>
+      <c r="H107">
+        <v>0.04174</v>
+      </c>
+      <c r="I107">
+        <v>57.408</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108">
+        <v>9.5</v>
+      </c>
+      <c r="B108">
+        <v>1</v>
+      </c>
+      <c r="C108">
+        <v>2</v>
+      </c>
+      <c r="D108">
+        <v>0.08721</v>
+      </c>
+      <c r="E108">
+        <v>-41.605</v>
+      </c>
+      <c r="F108">
+        <v>0.102995084916366</v>
+      </c>
+      <c r="G108">
+        <v>40.682</v>
+      </c>
+      <c r="H108">
+        <v>0.04223</v>
+      </c>
+      <c r="I108">
+        <v>57.637</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109">
+        <v>9.5</v>
+      </c>
+      <c r="B109">
+        <v>1</v>
+      </c>
+      <c r="C109">
+        <v>3</v>
+      </c>
+      <c r="D109">
+        <v>0.08695</v>
+      </c>
+      <c r="E109">
+        <v>-41.806</v>
+      </c>
+      <c r="F109">
+        <v>0.10299152765359</v>
+      </c>
+      <c r="G109">
+        <v>40.467</v>
+      </c>
+      <c r="H109">
+        <v>0.04219</v>
+      </c>
+      <c r="I109">
+        <v>57.783</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110">
+        <v>10</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+      <c r="D110">
+        <v>0.0891</v>
+      </c>
+      <c r="E110">
+        <v>-56.621</v>
+      </c>
+      <c r="F110">
+        <v>0.102894580287882</v>
+      </c>
+      <c r="G110">
+        <v>4.658</v>
+      </c>
+      <c r="H110">
+        <v>0.0417</v>
+      </c>
+      <c r="I110">
+        <v>27.607</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111">
+        <v>10</v>
+      </c>
+      <c r="B111">
+        <v>1</v>
+      </c>
+      <c r="C111">
+        <v>2</v>
+      </c>
+      <c r="D111">
+        <v>0.08933</v>
+      </c>
+      <c r="E111">
+        <v>-59.176</v>
+      </c>
+      <c r="F111">
+        <v>0.102900740483971</v>
+      </c>
+      <c r="G111">
+        <v>4.459</v>
+      </c>
+      <c r="H111">
+        <v>0.04227</v>
+      </c>
+      <c r="I111">
+        <v>27.972</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112">
+        <v>10</v>
+      </c>
+      <c r="B112">
+        <v>1</v>
+      </c>
+      <c r="C112">
+        <v>3</v>
+      </c>
+      <c r="D112">
+        <v>0.08903</v>
+      </c>
+      <c r="E112">
+        <v>-59.655</v>
+      </c>
+      <c r="F112">
+        <v>0.102896475693553</v>
+      </c>
+      <c r="G112">
+        <v>4.166</v>
+      </c>
+      <c r="H112">
+        <v>0.04217</v>
+      </c>
+      <c r="I112">
+        <v>28.091</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113">
+        <v>10.5</v>
+      </c>
+      <c r="B113">
+        <v>1</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+      <c r="D113">
+        <v>0.08774</v>
+      </c>
+      <c r="E113">
+        <v>-72.924</v>
+      </c>
+      <c r="F113">
+        <v>0.10282447481741</v>
+      </c>
+      <c r="G113">
+        <v>-31.617</v>
+      </c>
+      <c r="H113">
+        <v>0.03948</v>
+      </c>
+      <c r="I113">
+        <v>-7.695</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114">
+        <v>10.5</v>
+      </c>
+      <c r="B114">
+        <v>1</v>
+      </c>
+      <c r="C114">
+        <v>2</v>
+      </c>
+      <c r="D114">
+        <v>0.08654</v>
+      </c>
+      <c r="E114">
+        <v>-74.004</v>
+      </c>
+      <c r="F114">
+        <v>0.102842825517681</v>
+      </c>
+      <c r="G114">
+        <v>-31.782</v>
+      </c>
+      <c r="H114">
+        <v>0.03985</v>
+      </c>
+      <c r="I114">
+        <v>-7.253</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115">
+        <v>10.5</v>
+      </c>
+      <c r="B115">
+        <v>1</v>
+      </c>
+      <c r="C115">
+        <v>3</v>
+      </c>
+      <c r="D115">
+        <v>0.08601</v>
+      </c>
+      <c r="E115">
+        <v>-74.326</v>
+      </c>
+      <c r="F115">
+        <v>0.102836195209425</v>
+      </c>
+      <c r="G115">
+        <v>-32.095</v>
+      </c>
+      <c r="H115">
+        <v>0.03963</v>
+      </c>
+      <c r="I115">
+        <v>-7.266</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116">
+        <v>11</v>
+      </c>
+      <c r="B116">
+        <v>1</v>
+      </c>
+      <c r="C116">
+        <v>1</v>
+      </c>
+      <c r="D116">
+        <v>0.08331</v>
+      </c>
+      <c r="E116">
+        <v>-88.506</v>
+      </c>
+      <c r="F116">
+        <v>0.102797724180085</v>
+      </c>
+      <c r="G116">
+        <v>-67.942</v>
+      </c>
+      <c r="H116">
+        <v>0.03588</v>
+      </c>
+      <c r="I116">
+        <v>-43.82</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117">
+        <v>11</v>
+      </c>
+      <c r="B117">
+        <v>1</v>
+      </c>
+      <c r="C117">
+        <v>2</v>
+      </c>
+      <c r="D117">
+        <v>0.0838</v>
+      </c>
+      <c r="E117">
+        <v>-88.772</v>
+      </c>
+      <c r="F117">
+        <v>0.10280742935899</v>
+      </c>
+      <c r="G117">
+        <v>-68.119</v>
+      </c>
+      <c r="H117">
+        <v>0.0364</v>
+      </c>
+      <c r="I117">
+        <v>-43.092</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
+      <c r="A118">
+        <v>11</v>
+      </c>
+      <c r="B118">
+        <v>1</v>
+      </c>
+      <c r="C118">
+        <v>3</v>
+      </c>
+      <c r="D118">
+        <v>0.08351</v>
+      </c>
+      <c r="E118">
+        <v>-89.011</v>
+      </c>
+      <c r="F118">
+        <v>0.102790150042897</v>
+      </c>
+      <c r="G118">
+        <v>-68.402</v>
+      </c>
+      <c r="H118">
+        <v>0.03622</v>
+      </c>
+      <c r="I118">
+        <v>-43.212</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119">
+        <v>11.5</v>
+      </c>
+      <c r="B119">
+        <v>1</v>
+      </c>
+      <c r="C119">
+        <v>1</v>
+      </c>
+      <c r="D119">
+        <v>0.07565</v>
+      </c>
+      <c r="E119">
+        <v>-103.476</v>
+      </c>
+      <c r="F119">
+        <v>0.102816898709235</v>
+      </c>
+      <c r="G119">
+        <v>-104.354</v>
+      </c>
+      <c r="H119">
+        <v>0.03138</v>
+      </c>
+      <c r="I119">
+        <v>-82.025</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120">
+        <v>11.5</v>
+      </c>
+      <c r="B120">
+        <v>1</v>
+      </c>
+      <c r="C120">
+        <v>2</v>
+      </c>
+      <c r="D120">
+        <v>0.07439</v>
+      </c>
+      <c r="E120">
+        <v>-105.365</v>
+      </c>
+      <c r="F120">
+        <v>0.102837971142935</v>
+      </c>
+      <c r="G120">
+        <v>-104.586</v>
+      </c>
+      <c r="H120">
+        <v>0.03165</v>
+      </c>
+      <c r="I120">
+        <v>-80.993</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121">
+        <v>11.5</v>
+      </c>
+      <c r="B121">
+        <v>1</v>
+      </c>
+      <c r="C121">
+        <v>3</v>
+      </c>
+      <c r="D121">
+        <v>0.07385</v>
+      </c>
+      <c r="E121">
+        <v>-105.953</v>
+      </c>
+      <c r="F121">
+        <v>0.102832525044023</v>
+      </c>
+      <c r="G121">
+        <v>-104.955</v>
+      </c>
+      <c r="H121">
+        <v>0.03138</v>
+      </c>
+      <c r="I121">
+        <v>-81.47</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122">
+        <v>12</v>
+      </c>
+      <c r="B122">
+        <v>1</v>
+      </c>
+      <c r="C122">
+        <v>1</v>
+      </c>
+      <c r="D122">
+        <v>0.06278</v>
+      </c>
+      <c r="E122">
+        <v>-119.333</v>
+      </c>
+      <c r="F122">
+        <v>0.102807547720485</v>
+      </c>
+      <c r="G122">
+        <v>-140.928</v>
+      </c>
+      <c r="H122">
+        <v>0.02473</v>
+      </c>
+      <c r="I122">
+        <v>-132.102</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123">
+        <v>12</v>
+      </c>
+      <c r="B123">
+        <v>1</v>
+      </c>
+      <c r="C123">
+        <v>2</v>
+      </c>
+      <c r="D123">
+        <v>0.06324</v>
+      </c>
+      <c r="E123">
+        <v>-118.705</v>
+      </c>
+      <c r="F123">
+        <v>0.102833353779599</v>
+      </c>
+      <c r="G123">
+        <v>-141.15</v>
+      </c>
+      <c r="H123">
+        <v>0.02483</v>
+      </c>
+      <c r="I123">
+        <v>-130.714</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124">
+        <v>12</v>
+      </c>
+      <c r="B124">
+        <v>1</v>
+      </c>
+      <c r="C124">
+        <v>3</v>
+      </c>
+      <c r="D124">
+        <v>0.06313</v>
+      </c>
+      <c r="E124">
+        <v>-118.975</v>
+      </c>
+      <c r="F124">
+        <v>0.102812992496577</v>
+      </c>
+      <c r="G124">
+        <v>-141.501</v>
+      </c>
+      <c r="H124">
+        <v>0.0249</v>
+      </c>
+      <c r="I124">
+        <v>-131.678</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125">
+        <v>12.5</v>
+      </c>
+      <c r="B125">
+        <v>1</v>
+      </c>
+      <c r="C125">
+        <v>1</v>
+      </c>
+      <c r="D125">
+        <v>0.04592</v>
+      </c>
+      <c r="E125">
+        <v>-135.385</v>
+      </c>
+      <c r="F125">
+        <v>0.102776778319423</v>
+      </c>
+      <c r="G125">
+        <v>-177.616</v>
+      </c>
+      <c r="H125">
+        <v>0.02421</v>
+      </c>
+      <c r="I125">
+        <v>170.182</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="A126">
+        <v>12.5</v>
+      </c>
+      <c r="B126">
+        <v>1</v>
+      </c>
+      <c r="C126">
+        <v>2</v>
+      </c>
+      <c r="D126">
+        <v>0.04803</v>
+      </c>
+      <c r="E126">
+        <v>-139.255</v>
+      </c>
+      <c r="F126">
+        <v>0.10279417373379</v>
+      </c>
+      <c r="G126">
+        <v>-177.806</v>
+      </c>
+      <c r="H126">
+        <v>0.02399</v>
+      </c>
+      <c r="I126">
+        <v>171.216</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127">
+        <v>12.5</v>
+      </c>
+      <c r="B127">
+        <v>1</v>
+      </c>
+      <c r="C127">
+        <v>3</v>
+      </c>
+      <c r="D127">
+        <v>0.0485</v>
+      </c>
+      <c r="E127">
+        <v>-140.79</v>
+      </c>
+      <c r="F127">
+        <v>0.102756309935854</v>
+      </c>
+      <c r="G127">
+        <v>-178.148</v>
+      </c>
+      <c r="H127">
+        <v>0.02429</v>
+      </c>
+      <c r="I127">
+        <v>170.732</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
+      <c r="A128">
+        <v>13</v>
+      </c>
+      <c r="B128">
+        <v>1</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+      <c r="D128">
+        <v>0.02882</v>
+      </c>
+      <c r="E128">
+        <v>-151.881</v>
+      </c>
+      <c r="F128">
+        <v>0.102695638633924</v>
+      </c>
+      <c r="G128">
+        <v>145.603</v>
+      </c>
+      <c r="H128">
+        <v>0.03222</v>
+      </c>
+      <c r="I128">
+        <v>112.966</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
+      <c r="A129">
+        <v>13</v>
+      </c>
+      <c r="B129">
+        <v>1</v>
+      </c>
+      <c r="C129">
+        <v>2</v>
+      </c>
+      <c r="D129">
+        <v>0.02693</v>
+      </c>
+      <c r="E129">
+        <v>-154.218</v>
+      </c>
+      <c r="F129">
+        <v>0.102732060769934</v>
+      </c>
+      <c r="G129">
+        <v>145.42</v>
+      </c>
+      <c r="H129">
+        <v>0.03189</v>
+      </c>
+      <c r="I129">
+        <v>113.597</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
+      <c r="A130">
+        <v>13</v>
+      </c>
+      <c r="B130">
+        <v>1</v>
+      </c>
+      <c r="C130">
+        <v>3</v>
+      </c>
+      <c r="D130">
+        <v>0.02622</v>
+      </c>
+      <c r="E130">
+        <v>-156.798</v>
+      </c>
+      <c r="F130">
+        <v>0.102724964535681</v>
+      </c>
+      <c r="G130">
+        <v>145.027</v>
+      </c>
+      <c r="H130">
+        <v>0.03215</v>
+      </c>
+      <c r="I130">
+        <v>113.727</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
+      <c r="A131">
+        <v>13.5</v>
+      </c>
+      <c r="B131">
+        <v>1</v>
+      </c>
+      <c r="C131">
+        <v>1</v>
+      </c>
+      <c r="D131">
+        <v>0.01055</v>
+      </c>
+      <c r="E131">
+        <v>173.776</v>
+      </c>
+      <c r="F131">
+        <v>0.102566963878562</v>
+      </c>
+      <c r="G131">
+        <v>108.694</v>
+      </c>
+      <c r="H131">
+        <v>0.03985</v>
+      </c>
+      <c r="I131">
+        <v>70.838</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
+      <c r="A132">
+        <v>13.5</v>
+      </c>
+      <c r="B132">
+        <v>1</v>
+      </c>
+      <c r="C132">
+        <v>2</v>
+      </c>
+      <c r="D132">
+        <v>0.01104</v>
+      </c>
+      <c r="E132">
+        <v>176.999</v>
+      </c>
+      <c r="F132">
+        <v>0.102605821064326</v>
+      </c>
+      <c r="G132">
+        <v>108.47</v>
+      </c>
+      <c r="H132">
+        <v>0.03957</v>
+      </c>
+      <c r="I132">
+        <v>71.116</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
+      <c r="A133">
+        <v>13.5</v>
+      </c>
+      <c r="B133">
+        <v>1</v>
+      </c>
+      <c r="C133">
+        <v>3</v>
+      </c>
+      <c r="D133">
+        <v>0.01096</v>
+      </c>
+      <c r="E133">
+        <v>176.329</v>
+      </c>
+      <c r="F133">
+        <v>0.102591174074545</v>
+      </c>
+      <c r="G133">
+        <v>108.049</v>
+      </c>
+      <c r="H133">
+        <v>0.03982</v>
+      </c>
+      <c r="I133">
+        <v>71.212</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
+      <c r="A134">
+        <v>14</v>
+      </c>
+      <c r="B134">
+        <v>1</v>
+      </c>
+      <c r="C134">
+        <v>1</v>
+      </c>
+      <c r="D134">
+        <v>0.01182</v>
+      </c>
+      <c r="E134">
+        <v>41.131</v>
+      </c>
+      <c r="F134">
+        <v>0.102350743069244</v>
+      </c>
+      <c r="G134">
+        <v>71.714</v>
+      </c>
+      <c r="H134">
+        <v>0.05068</v>
+      </c>
+      <c r="I134">
+        <v>29.685</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
+      <c r="A135">
+        <v>14</v>
+      </c>
+      <c r="B135">
+        <v>1</v>
+      </c>
+      <c r="C135">
+        <v>2</v>
+      </c>
+      <c r="D135">
+        <v>0.01249</v>
+      </c>
+      <c r="E135">
+        <v>30.811</v>
+      </c>
+      <c r="F135">
+        <v>0.102386099869083</v>
+      </c>
+      <c r="G135">
+        <v>71.505</v>
+      </c>
+      <c r="H135">
+        <v>0.05037</v>
+      </c>
+      <c r="I135">
+        <v>29.942</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
+      <c r="A136">
+        <v>14</v>
+      </c>
+      <c r="B136">
+        <v>1</v>
+      </c>
+      <c r="C136">
+        <v>3</v>
+      </c>
+      <c r="D136">
+        <v>0.0127</v>
+      </c>
+      <c r="E136">
+        <v>27.661</v>
+      </c>
+      <c r="F136">
+        <v>0.102363352260177</v>
+      </c>
+      <c r="G136">
+        <v>71.074</v>
+      </c>
+      <c r="H136">
+        <v>0.05052</v>
+      </c>
+      <c r="I136">
+        <v>30.169</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
+      <c r="A137">
+        <v>14.5</v>
+      </c>
+      <c r="B137">
+        <v>1</v>
+      </c>
+      <c r="C137">
+        <v>1</v>
+      </c>
+      <c r="D137">
+        <v>0.02984</v>
+      </c>
+      <c r="E137">
+        <v>5.952</v>
+      </c>
+      <c r="F137">
+        <v>0.10202849957718</v>
+      </c>
+      <c r="G137">
+        <v>34.689</v>
+      </c>
+      <c r="H137">
+        <v>0.06378</v>
+      </c>
+      <c r="I137">
+        <v>-6.738</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
+      <c r="A138">
+        <v>14.5</v>
+      </c>
+      <c r="B138">
+        <v>1</v>
+      </c>
+      <c r="C138">
+        <v>2</v>
+      </c>
+      <c r="D138">
+        <v>0.02858</v>
+      </c>
+      <c r="E138">
+        <v>2.667</v>
+      </c>
+      <c r="F138">
+        <v>0.102072910878238</v>
+      </c>
+      <c r="G138">
+        <v>34.46</v>
+      </c>
+      <c r="H138">
+        <v>0.06356</v>
+      </c>
+      <c r="I138">
+        <v>-6.606</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
+      <c r="A139">
+        <v>14.5</v>
+      </c>
+      <c r="B139">
+        <v>1</v>
+      </c>
+      <c r="C139">
+        <v>3</v>
+      </c>
+      <c r="D139">
+        <v>0.02831</v>
+      </c>
+      <c r="E139">
+        <v>1.204</v>
+      </c>
+      <c r="F139">
+        <v>0.102063862564133</v>
+      </c>
+      <c r="G139">
+        <v>34.018</v>
+      </c>
+      <c r="H139">
+        <v>0.06359</v>
+      </c>
+      <c r="I139">
+        <v>-6.408</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
+      <c r="A140">
+        <v>15</v>
+      </c>
+      <c r="B140">
+        <v>1</v>
+      </c>
+      <c r="C140">
+        <v>1</v>
+      </c>
+      <c r="D140">
+        <v>0.04484</v>
+      </c>
+      <c r="E140">
+        <v>-11.643</v>
+      </c>
+      <c r="F140">
+        <v>0.101759742655473</v>
+      </c>
+      <c r="G140">
+        <v>-2.36</v>
+      </c>
+      <c r="H140">
+        <v>0.07708</v>
+      </c>
+      <c r="I140">
+        <v>-36.187</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
+      <c r="A141">
+        <v>15</v>
+      </c>
+      <c r="B141">
+        <v>1</v>
+      </c>
+      <c r="C141">
+        <v>2</v>
+      </c>
+      <c r="D141">
+        <v>0.04517</v>
+      </c>
+      <c r="E141">
+        <v>-13.263</v>
+      </c>
+      <c r="F141">
+        <v>0.101799466030823</v>
+      </c>
+      <c r="G141">
+        <v>-2.581</v>
+      </c>
+      <c r="H141">
+        <v>0.07664</v>
+      </c>
+      <c r="I141">
+        <v>-36.008</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
+      <c r="A142">
+        <v>15</v>
+      </c>
+      <c r="B142">
+        <v>1</v>
+      </c>
+      <c r="C142">
+        <v>3</v>
+      </c>
+      <c r="D142">
+        <v>0.04451</v>
+      </c>
+      <c r="E142">
+        <v>-14.979</v>
+      </c>
+      <c r="F142">
+        <v>0.101791613868917</v>
+      </c>
+      <c r="G142">
+        <v>-3.041</v>
+      </c>
+      <c r="H142">
+        <v>0.07645</v>
+      </c>
+      <c r="I142">
+        <v>-35.952</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
+      <c r="A143">
+        <v>15.5</v>
+      </c>
+      <c r="B143">
+        <v>1</v>
+      </c>
+      <c r="C143">
+        <v>1</v>
+      </c>
+      <c r="D143">
+        <v>0.05667</v>
+      </c>
+      <c r="E143">
+        <v>-26.867</v>
+      </c>
+      <c r="F143">
+        <v>0.101636335929475</v>
+      </c>
+      <c r="G143">
+        <v>-39.528</v>
+      </c>
+      <c r="H143">
+        <v>0.08405</v>
+      </c>
+      <c r="I143">
+        <v>-64.904</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
+      <c r="A144">
+        <v>15.5</v>
+      </c>
+      <c r="B144">
+        <v>1</v>
+      </c>
+      <c r="C144">
+        <v>2</v>
+      </c>
+      <c r="D144">
+        <v>0.05633</v>
+      </c>
+      <c r="E144">
+        <v>-27.611</v>
+      </c>
+      <c r="F144">
+        <v>0.101679991209485</v>
+      </c>
+      <c r="G144">
+        <v>-39.734</v>
+      </c>
+      <c r="H144">
+        <v>0.08364</v>
+      </c>
+      <c r="I144">
+        <v>-64.687</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
+      <c r="A145">
+        <v>15.5</v>
+      </c>
+      <c r="B145">
+        <v>1</v>
+      </c>
+      <c r="C145">
+        <v>3</v>
+      </c>
+      <c r="D145">
+        <v>0.05643</v>
+      </c>
+      <c r="E145">
+        <v>-26.894</v>
+      </c>
+      <c r="F145">
+        <v>0.101666061617205</v>
+      </c>
+      <c r="G145">
+        <v>-40.172</v>
+      </c>
+      <c r="H145">
+        <v>0.08357</v>
+      </c>
+      <c r="I145">
+        <v>-64.77</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
+      <c r="A146">
+        <v>16</v>
+      </c>
+      <c r="B146">
+        <v>1</v>
+      </c>
+      <c r="C146">
+        <v>1</v>
+      </c>
+      <c r="D146">
+        <v>0.06235</v>
+      </c>
+      <c r="E146">
+        <v>-38.484</v>
+      </c>
+      <c r="F146">
+        <v>0.10151342947643</v>
+      </c>
+      <c r="G146">
+        <v>-76.761</v>
+      </c>
+      <c r="H146">
+        <v>0.08897</v>
+      </c>
+      <c r="I146">
+        <v>-93.983</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
+      <c r="A147">
+        <v>16</v>
+      </c>
+      <c r="B147">
+        <v>1</v>
+      </c>
+      <c r="C147">
+        <v>2</v>
+      </c>
+      <c r="D147">
+        <v>0.06418</v>
+      </c>
+      <c r="E147">
+        <v>-38.052</v>
+      </c>
+      <c r="F147">
+        <v>0.101561007385967</v>
+      </c>
+      <c r="G147">
+        <v>-76.979</v>
+      </c>
+      <c r="H147">
+        <v>0.08824</v>
+      </c>
+      <c r="I147">
+        <v>-93.715</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
+      <c r="A148">
+        <v>16</v>
+      </c>
+      <c r="B148">
+        <v>1</v>
+      </c>
+      <c r="C148">
+        <v>3</v>
+      </c>
+      <c r="D148">
+        <v>0.06614</v>
+      </c>
+      <c r="E148">
+        <v>-38.73</v>
+      </c>
+      <c r="F148">
+        <v>0.101551770617991</v>
+      </c>
+      <c r="G148">
+        <v>-77.446</v>
+      </c>
+      <c r="H148">
+        <v>0.08818</v>
+      </c>
+      <c r="I148">
+        <v>-93.8</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
+      <c r="A149">
+        <v>16.5</v>
+      </c>
+      <c r="B149">
+        <v>1</v>
+      </c>
+      <c r="C149">
+        <v>1</v>
+      </c>
+      <c r="D149">
+        <v>0.06523</v>
+      </c>
+      <c r="E149">
+        <v>-46.787</v>
+      </c>
+      <c r="F149">
+        <v>0.101454192837536</v>
+      </c>
+      <c r="G149">
+        <v>-114.037</v>
+      </c>
+      <c r="H149">
+        <v>0.09509</v>
+      </c>
+      <c r="I149">
+        <v>-121.541</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
+      <c r="A150">
+        <v>16.5</v>
+      </c>
+      <c r="B150">
+        <v>1</v>
+      </c>
+      <c r="C150">
+        <v>2</v>
+      </c>
+      <c r="D150">
+        <v>0.06593</v>
+      </c>
+      <c r="E150">
+        <v>-48.873</v>
+      </c>
+      <c r="F150">
+        <v>0.101526052399888</v>
+      </c>
+      <c r="G150">
+        <v>-114.248</v>
+      </c>
+      <c r="H150">
+        <v>0.09425</v>
+      </c>
+      <c r="I150">
+        <v>-121.315</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
+      <c r="A151">
+        <v>16.5</v>
+      </c>
+      <c r="B151">
+        <v>1</v>
+      </c>
+      <c r="C151">
+        <v>3</v>
+      </c>
+      <c r="D151">
+        <v>0.06652</v>
+      </c>
+      <c r="E151">
+        <v>-49.988</v>
+      </c>
+      <c r="F151">
+        <v>0.101527221268491</v>
+      </c>
+      <c r="G151">
+        <v>-114.712</v>
+      </c>
+      <c r="H151">
+        <v>0.09419</v>
+      </c>
+      <c r="I151">
+        <v>-121.413</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
+      <c r="A152">
+        <v>17</v>
+      </c>
+      <c r="B152">
+        <v>1</v>
+      </c>
+      <c r="C152">
+        <v>1</v>
+      </c>
+      <c r="D152">
+        <v>0.06519</v>
+      </c>
+      <c r="E152">
+        <v>-53.821</v>
+      </c>
+      <c r="F152">
+        <v>0.101431068389021</v>
+      </c>
+      <c r="G152">
+        <v>-151.386</v>
+      </c>
+      <c r="H152">
+        <v>0.09788</v>
+      </c>
+      <c r="I152">
+        <v>-146.594</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
+      <c r="A153">
+        <v>17</v>
+      </c>
+      <c r="B153">
+        <v>1</v>
+      </c>
+      <c r="C153">
+        <v>2</v>
+      </c>
+      <c r="D153">
+        <v>0.06489</v>
+      </c>
+      <c r="E153">
+        <v>-54.288</v>
+      </c>
+      <c r="F153">
+        <v>0.101514481326772</v>
+      </c>
+      <c r="G153">
+        <v>-151.602</v>
+      </c>
+      <c r="H153">
+        <v>0.09695</v>
+      </c>
+      <c r="I153">
+        <v>-146.506</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
+      <c r="A154">
+        <v>17</v>
+      </c>
+      <c r="B154">
+        <v>1</v>
+      </c>
+      <c r="C154">
+        <v>3</v>
+      </c>
+      <c r="D154">
+        <v>0.06514</v>
+      </c>
+      <c r="E154">
+        <v>-56.873</v>
+      </c>
+      <c r="F154">
+        <v>0.101546860273253</v>
+      </c>
+      <c r="G154">
+        <v>-152.066</v>
+      </c>
+      <c r="H154">
+        <v>0.09686</v>
+      </c>
+      <c r="I154">
+        <v>-146.72</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
+      <c r="A155">
+        <v>17.5</v>
+      </c>
+      <c r="B155">
+        <v>1</v>
+      </c>
+      <c r="C155">
+        <v>1</v>
+      </c>
+      <c r="D155">
+        <v>0.06375</v>
+      </c>
+      <c r="E155">
+        <v>-59.662</v>
+      </c>
+      <c r="F155">
+        <v>0.101523480936331</v>
+      </c>
+      <c r="G155">
+        <v>171.246</v>
+      </c>
+      <c r="H155">
+        <v>0.10108</v>
+      </c>
+      <c r="I155">
+        <v>-170.504</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
+      <c r="A156">
+        <v>17.5</v>
+      </c>
+      <c r="B156">
+        <v>1</v>
+      </c>
+      <c r="C156">
+        <v>2</v>
+      </c>
+      <c r="D156">
+        <v>0.06346</v>
+      </c>
+      <c r="E156">
+        <v>-62.11</v>
+      </c>
+      <c r="F156">
+        <v>0.101591178885869</v>
+      </c>
+      <c r="G156">
+        <v>171.018</v>
+      </c>
+      <c r="H156">
+        <v>0.10013</v>
+      </c>
+      <c r="I156">
+        <v>-170.285</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
+      <c r="A157">
+        <v>17.5</v>
+      </c>
+      <c r="B157">
+        <v>1</v>
+      </c>
+      <c r="C157">
+        <v>3</v>
+      </c>
+      <c r="D157">
+        <v>0.06077</v>
+      </c>
+      <c r="E157">
+        <v>-64.789</v>
+      </c>
+      <c r="F157">
+        <v>0.101608841557333</v>
+      </c>
+      <c r="G157">
+        <v>170.515</v>
+      </c>
+      <c r="H157">
+        <v>0.10012</v>
+      </c>
+      <c r="I157">
+        <v>-170.468</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
+      <c r="A158">
+        <v>18</v>
+      </c>
+      <c r="B158">
+        <v>1</v>
+      </c>
+      <c r="C158">
+        <v>1</v>
+      </c>
+      <c r="D158">
+        <v>0.0629</v>
+      </c>
+      <c r="E158">
+        <v>-64.162</v>
+      </c>
+      <c r="F158">
+        <v>0.101663369563132</v>
+      </c>
+      <c r="G158">
+        <v>133.885</v>
+      </c>
+      <c r="H158">
+        <v>0.10061</v>
+      </c>
+      <c r="I158">
+        <v>167.848</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
+      <c r="A159">
+        <v>18</v>
+      </c>
+      <c r="B159">
+        <v>1</v>
+      </c>
+      <c r="C159">
+        <v>2</v>
+      </c>
+      <c r="D159">
+        <v>0.06094</v>
+      </c>
+      <c r="E159">
+        <v>-63.067</v>
+      </c>
+      <c r="F159">
+        <v>0.101752830731464</v>
+      </c>
+      <c r="G159">
+        <v>133.7</v>
+      </c>
+      <c r="H159">
+        <v>0.09941</v>
+      </c>
+      <c r="I159">
+        <v>167.886</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
+      <c r="A160">
+        <v>18</v>
+      </c>
+      <c r="B160">
+        <v>1</v>
+      </c>
+      <c r="C160">
+        <v>3</v>
+      </c>
+      <c r="D160">
+        <v>0.0591</v>
+      </c>
+      <c r="E160">
+        <v>-61.947</v>
+      </c>
+      <c r="F160">
+        <v>0.101765483423828</v>
+      </c>
+      <c r="G160">
+        <v>133.245</v>
+      </c>
+      <c r="H160">
+        <v>0.09949</v>
+      </c>
+      <c r="I160">
+        <v>167.583</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sandersa\PyCharmProjects\Jupyter-Notebooks\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="9765"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -51,20 +46,22 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -85,16 +82,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -109,18 +106,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -135,44 +124,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -199,32 +188,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -251,24 +222,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -280,157 +233,178 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -459,7 +433,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
@@ -473,22 +447,22 @@
         <v>172.846</v>
       </c>
       <c r="E2">
-        <v>-0.74099999999999999</v>
+        <v>-0.741</v>
       </c>
       <c r="F2">
-        <v>173.85599999999999</v>
+        <v>173.856</v>
       </c>
       <c r="G2">
-        <v>1.47E-2</v>
+        <v>0.0147</v>
       </c>
       <c r="H2">
         <v>0.103989</v>
       </c>
       <c r="I2">
-        <v>5.4299999999999999E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.00543</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>2</v>
       </c>
@@ -499,25 +473,25 @@
         <v>0.01</v>
       </c>
       <c r="D3">
-        <v>172.86699999999999</v>
+        <v>172.867</v>
       </c>
       <c r="E3">
         <v>-0.747</v>
       </c>
       <c r="F3">
-        <v>174.03399999999999</v>
+        <v>174.034</v>
       </c>
       <c r="G3">
-        <v>1.473E-2</v>
+        <v>0.01473</v>
       </c>
       <c r="H3">
         <v>0.103982</v>
       </c>
       <c r="I3">
-        <v>5.4200000000000003E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.00542</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>3</v>
       </c>
@@ -537,16 +511,16 @@
         <v>173.679</v>
       </c>
       <c r="G4">
-        <v>1.4789999999999999E-2</v>
+        <v>0.01479</v>
       </c>
       <c r="H4">
         <v>0.10399</v>
       </c>
       <c r="I4">
-        <v>5.4200000000000003E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.00542</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>1</v>
       </c>
@@ -557,7 +531,7 @@
         <v>0.02</v>
       </c>
       <c r="D5">
-        <v>173.51599999999999</v>
+        <v>173.516</v>
       </c>
       <c r="E5">
         <v>-1.462</v>
@@ -566,16 +540,16 @@
         <v>164.19</v>
       </c>
       <c r="G5">
-        <v>1.5100000000000001E-2</v>
+        <v>0.0151</v>
       </c>
       <c r="H5">
-        <v>0.10394200000000001</v>
+        <v>0.103942</v>
       </c>
       <c r="I5">
-        <v>5.6800000000000002E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.00568</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>2</v>
       </c>
@@ -586,7 +560,7 @@
         <v>0.02</v>
       </c>
       <c r="D6">
-        <v>173.60599999999999</v>
+        <v>173.606</v>
       </c>
       <c r="E6">
         <v>-1.46</v>
@@ -595,16 +569,16 @@
         <v>164.322</v>
       </c>
       <c r="G6">
-        <v>1.512E-2</v>
+        <v>0.01512</v>
       </c>
       <c r="H6">
-        <v>0.10394299999999999</v>
+        <v>0.103943</v>
       </c>
       <c r="I6">
-        <v>5.6699999999999997E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.00567</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>3</v>
       </c>
@@ -615,25 +589,25 @@
         <v>0.02</v>
       </c>
       <c r="D7">
-        <v>173.47900000000001</v>
+        <v>173.479</v>
       </c>
       <c r="E7">
         <v>-1.466</v>
       </c>
       <c r="F7">
-        <v>164.15899999999999</v>
+        <v>164.159</v>
       </c>
       <c r="G7">
-        <v>1.5180000000000001E-2</v>
+        <v>0.01518</v>
       </c>
       <c r="H7">
         <v>0.103945</v>
       </c>
       <c r="I7">
-        <v>5.6699999999999997E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.00567</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>1</v>
       </c>
@@ -653,16 +627,16 @@
         <v>103.045</v>
       </c>
       <c r="G8">
-        <v>1.6619999999999999E-2</v>
+        <v>0.01662</v>
       </c>
       <c r="H8">
         <v>0.103932</v>
       </c>
       <c r="I8">
-        <v>2.7399999999999998E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.00274</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>2</v>
       </c>
@@ -673,25 +647,25 @@
         <v>0.03</v>
       </c>
       <c r="D9">
-        <v>172.79900000000001</v>
+        <v>172.799</v>
       </c>
       <c r="E9">
-        <v>-2.1779999999999999</v>
+        <v>-2.178</v>
       </c>
       <c r="F9">
-        <v>103.11199999999999</v>
+        <v>103.112</v>
       </c>
       <c r="G9">
-        <v>1.6650000000000002E-2</v>
+        <v>0.01665</v>
       </c>
       <c r="H9">
-        <v>0.10392700000000001</v>
+        <v>0.103927</v>
       </c>
       <c r="I9">
-        <v>2.7100000000000002E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.00271</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>3</v>
       </c>
@@ -705,22 +679,22 @@
         <v>172.697</v>
       </c>
       <c r="E10">
-        <v>-2.1749999999999998</v>
+        <v>-2.175</v>
       </c>
       <c r="F10">
         <v>103.129</v>
       </c>
       <c r="G10">
-        <v>1.67E-2</v>
+        <v>0.0167</v>
       </c>
       <c r="H10">
         <v>0.103938</v>
       </c>
       <c r="I10">
-        <v>2.7499999999999998E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.00275</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>1</v>
       </c>
@@ -731,25 +705,25 @@
         <v>0.04</v>
       </c>
       <c r="D11">
-        <v>172.46100000000001</v>
+        <v>172.461</v>
       </c>
       <c r="E11">
-        <v>-2.8839999999999999</v>
+        <v>-2.884</v>
       </c>
       <c r="F11">
-        <v>143.13800000000001</v>
+        <v>143.138</v>
       </c>
       <c r="G11">
-        <v>1.516E-2</v>
+        <v>0.01516</v>
       </c>
       <c r="H11">
         <v>0.103907</v>
       </c>
       <c r="I11">
-        <v>3.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>2</v>
       </c>
@@ -763,22 +737,22 @@
         <v>172.542</v>
       </c>
       <c r="E12">
-        <v>-2.8879999999999999</v>
+        <v>-2.888</v>
       </c>
       <c r="F12">
-        <v>143.67099999999999</v>
+        <v>143.671</v>
       </c>
       <c r="G12">
-        <v>1.5180000000000001E-2</v>
+        <v>0.01518</v>
       </c>
       <c r="H12">
-        <v>0.10391300000000001</v>
+        <v>0.103913</v>
       </c>
       <c r="I12">
-        <v>3.0100000000000001E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.00301</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>3</v>
       </c>
@@ -789,25 +763,25 @@
         <v>0.04</v>
       </c>
       <c r="D13">
-        <v>172.43899999999999</v>
+        <v>172.439</v>
       </c>
       <c r="E13">
-        <v>-2.8849999999999998</v>
+        <v>-2.885</v>
       </c>
       <c r="F13">
         <v>143.334</v>
       </c>
       <c r="G13">
-        <v>1.524E-2</v>
+        <v>0.01524</v>
       </c>
       <c r="H13">
         <v>0.103923</v>
       </c>
       <c r="I13">
-        <v>3.0400000000000002E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.00304</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>1</v>
       </c>
@@ -818,25 +792,25 @@
         <v>0.05</v>
       </c>
       <c r="D14">
-        <v>176.49799999999999</v>
+        <v>176.498</v>
       </c>
       <c r="E14">
-        <v>-3.6019999999999999</v>
+        <v>-3.602</v>
       </c>
       <c r="F14">
-        <v>154.46600000000001</v>
+        <v>154.466</v>
       </c>
       <c r="G14">
-        <v>1.4149999999999999E-2</v>
+        <v>0.01415</v>
       </c>
       <c r="H14">
         <v>0.103903</v>
       </c>
       <c r="I14">
-        <v>4.0600000000000002E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.00406</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>2</v>
       </c>
@@ -847,25 +821,25 @@
         <v>0.05</v>
       </c>
       <c r="D15">
-        <v>176.64500000000001</v>
+        <v>176.645</v>
       </c>
       <c r="E15">
-        <v>-3.6059999999999999</v>
+        <v>-3.606</v>
       </c>
       <c r="F15">
-        <v>154.75299999999999</v>
+        <v>154.753</v>
       </c>
       <c r="G15">
-        <v>1.417E-2</v>
+        <v>0.01417</v>
       </c>
       <c r="H15">
         <v>0.103897</v>
       </c>
       <c r="I15">
-        <v>4.0499999999999998E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.00405</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>3</v>
       </c>
@@ -876,25 +850,25 @@
         <v>0.05</v>
       </c>
       <c r="D16">
-        <v>176.50899999999999</v>
+        <v>176.509</v>
       </c>
       <c r="E16">
         <v>-3.613</v>
       </c>
       <c r="F16">
-        <v>154.40799999999999</v>
+        <v>154.408</v>
       </c>
       <c r="G16">
-        <v>1.4200000000000001E-2</v>
+        <v>0.0142</v>
       </c>
       <c r="H16">
-        <v>0.10391400000000001</v>
+        <v>0.103914</v>
       </c>
       <c r="I16">
-        <v>4.0699999999999998E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.00407</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17">
         <v>1</v>
       </c>
@@ -908,22 +882,22 @@
         <v>175.1</v>
       </c>
       <c r="E17">
-        <v>-4.3129999999999997</v>
+        <v>-4.313</v>
       </c>
       <c r="F17">
         <v>146.435</v>
       </c>
       <c r="G17">
-        <v>1.405E-2</v>
+        <v>0.01405</v>
       </c>
       <c r="H17">
         <v>0.103897</v>
       </c>
       <c r="I17">
-        <v>4.8500000000000001E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.00485</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18">
         <v>2</v>
       </c>
@@ -937,22 +911,22 @@
         <v>175.25</v>
       </c>
       <c r="E18">
-        <v>-4.3129999999999997</v>
+        <v>-4.313</v>
       </c>
       <c r="F18">
-        <v>146.50700000000001</v>
+        <v>146.507</v>
       </c>
       <c r="G18">
-        <v>1.4069999999999999E-2</v>
+        <v>0.01407</v>
       </c>
       <c r="H18">
         <v>0.103904</v>
       </c>
       <c r="I18">
-        <v>4.8399999999999997E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.00484</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19">
         <v>3</v>
       </c>
@@ -963,25 +937,25 @@
         <v>0.06</v>
       </c>
       <c r="D19">
-        <v>175.08600000000001</v>
+        <v>175.086</v>
       </c>
       <c r="E19">
-        <v>-4.3209999999999997</v>
+        <v>-4.321</v>
       </c>
       <c r="F19">
-        <v>146.46899999999999</v>
+        <v>146.469</v>
       </c>
       <c r="G19">
-        <v>1.41E-2</v>
+        <v>0.0141</v>
       </c>
       <c r="H19">
-        <v>0.10391499999999999</v>
+        <v>0.103915</v>
       </c>
       <c r="I19">
-        <v>4.8599999999999997E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.00486</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20">
         <v>1</v>
       </c>
@@ -989,28 +963,28 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07</v>
       </c>
       <c r="D20">
         <v>171.376</v>
       </c>
       <c r="E20">
-        <v>-5.0330000000000004</v>
+        <v>-5.033</v>
       </c>
       <c r="F20">
-        <v>161.57300000000001</v>
+        <v>161.573</v>
       </c>
       <c r="G20">
-        <v>1.3429999999999999E-2</v>
+        <v>0.01343</v>
       </c>
       <c r="H20">
         <v>0.103892</v>
       </c>
       <c r="I20">
-        <v>5.0200000000000002E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.00502</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21">
         <v>2</v>
       </c>
@@ -1018,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="C21">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07</v>
       </c>
       <c r="D21">
         <v>171.501</v>
       </c>
       <c r="E21">
-        <v>-5.0309999999999997</v>
+        <v>-5.031</v>
       </c>
       <c r="F21">
-        <v>161.89400000000001</v>
+        <v>161.894</v>
       </c>
       <c r="G21">
-        <v>1.3429999999999999E-2</v>
+        <v>0.01343</v>
       </c>
       <c r="H21">
         <v>0.103903</v>
       </c>
       <c r="I21">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22">
         <v>3</v>
       </c>
@@ -1047,28 +1021,28 @@
         <v>1</v>
       </c>
       <c r="C22">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07</v>
       </c>
       <c r="D22">
-        <v>171.25700000000001</v>
+        <v>171.257</v>
       </c>
       <c r="E22">
         <v>-5.04</v>
       </c>
       <c r="F22">
-        <v>161.54900000000001</v>
+        <v>161.549</v>
       </c>
       <c r="G22">
-        <v>1.349E-2</v>
+        <v>0.01349</v>
       </c>
       <c r="H22">
-        <v>0.10392700000000001</v>
+        <v>0.103927</v>
       </c>
       <c r="I22">
-        <v>5.0499999999999998E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.00505</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23">
         <v>1</v>
       </c>
@@ -1079,7 +1053,7 @@
         <v>0.08</v>
       </c>
       <c r="D23">
-        <v>168.91200000000001</v>
+        <v>168.912</v>
       </c>
       <c r="E23">
         <v>-5.75</v>
@@ -1088,16 +1062,16 @@
         <v>154.649</v>
       </c>
       <c r="G23">
-        <v>1.431E-2</v>
+        <v>0.01431</v>
       </c>
       <c r="H23">
-        <v>0.10388799999999999</v>
+        <v>0.103888</v>
       </c>
       <c r="I23">
-        <v>4.7299999999999998E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.00473</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24">
         <v>2</v>
       </c>
@@ -1111,22 +1085,22 @@
         <v>169.214</v>
       </c>
       <c r="E24">
-        <v>-5.7469999999999999</v>
+        <v>-5.747</v>
       </c>
       <c r="F24">
         <v>154.989</v>
       </c>
       <c r="G24">
-        <v>1.431E-2</v>
+        <v>0.01431</v>
       </c>
       <c r="H24">
         <v>0.103897</v>
       </c>
       <c r="I24">
-        <v>4.6699999999999997E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.00467</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25">
         <v>3</v>
       </c>
@@ -1137,25 +1111,25 @@
         <v>0.08</v>
       </c>
       <c r="D25">
-        <v>168.94900000000001</v>
+        <v>168.949</v>
       </c>
       <c r="E25">
-        <v>-5.7450000000000001</v>
+        <v>-5.745</v>
       </c>
       <c r="F25">
         <v>154.667</v>
       </c>
       <c r="G25">
-        <v>1.438E-2</v>
+        <v>0.01438</v>
       </c>
       <c r="H25">
-        <v>0.10391599999999999</v>
+        <v>0.103916</v>
       </c>
       <c r="I25">
-        <v>4.7600000000000003E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.00476</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26">
         <v>1</v>
       </c>
@@ -1169,22 +1143,22 @@
         <v>168.328</v>
       </c>
       <c r="E26">
-        <v>-6.4669999999999996</v>
+        <v>-6.467</v>
       </c>
       <c r="F26">
         <v>145.077</v>
       </c>
       <c r="G26">
-        <v>1.529E-2</v>
+        <v>0.01529</v>
       </c>
       <c r="H26">
         <v>0.103894</v>
       </c>
       <c r="I26">
-        <v>4.8700000000000002E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.00487</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27">
         <v>2</v>
       </c>
@@ -1195,25 +1169,25 @@
         <v>0.09</v>
       </c>
       <c r="D27">
-        <v>168.49799999999999</v>
+        <v>168.498</v>
       </c>
       <c r="E27">
-        <v>-6.4630000000000001</v>
+        <v>-6.463</v>
       </c>
       <c r="F27">
-        <v>145.10599999999999</v>
+        <v>145.106</v>
       </c>
       <c r="G27">
-        <v>1.529E-2</v>
+        <v>0.01529</v>
       </c>
       <c r="H27">
         <v>0.103906</v>
       </c>
       <c r="I27">
-        <v>4.8500000000000001E-3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.00485</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28">
         <v>3</v>
       </c>
@@ -1224,25 +1198,25 @@
         <v>0.09</v>
       </c>
       <c r="D28">
-        <v>168.38900000000001</v>
+        <v>168.389</v>
       </c>
       <c r="E28">
-        <v>-6.4669999999999996</v>
+        <v>-6.467</v>
       </c>
       <c r="F28">
         <v>145.238</v>
       </c>
       <c r="G28">
-        <v>1.5389999999999999E-2</v>
+        <v>0.01539</v>
       </c>
       <c r="H28">
-        <v>0.10391599999999999</v>
+        <v>0.103916</v>
       </c>
       <c r="I28">
-        <v>4.9199999999999999E-3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.00492</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29">
         <v>1</v>
       </c>
@@ -1253,25 +1227,25 @@
         <v>0.1</v>
       </c>
       <c r="D29">
-        <v>168.55699999999999</v>
+        <v>168.557</v>
       </c>
       <c r="E29">
-        <v>-7.1749999999999998</v>
+        <v>-7.175</v>
       </c>
       <c r="F29">
         <v>139.965</v>
       </c>
       <c r="G29">
-        <v>1.5219999999999999E-2</v>
+        <v>0.01522</v>
       </c>
       <c r="H29">
         <v>0.10388</v>
       </c>
       <c r="I29">
-        <v>5.1700000000000001E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.00517</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30">
         <v>2</v>
       </c>
@@ -1282,25 +1256,25 @@
         <v>0.1</v>
       </c>
       <c r="D30">
-        <v>168.69800000000001</v>
+        <v>168.698</v>
       </c>
       <c r="E30">
-        <v>-7.1820000000000004</v>
+        <v>-7.182</v>
       </c>
       <c r="F30">
         <v>139.976</v>
       </c>
       <c r="G30">
-        <v>1.519E-2</v>
+        <v>0.01519</v>
       </c>
       <c r="H30">
         <v>0.103892</v>
       </c>
       <c r="I30">
-        <v>5.1200000000000004E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.00512</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31">
         <v>3</v>
       </c>
@@ -1311,25 +1285,25 @@
         <v>0.1</v>
       </c>
       <c r="D31">
-        <v>168.58099999999999</v>
+        <v>168.581</v>
       </c>
       <c r="E31">
-        <v>-7.1779999999999999</v>
+        <v>-7.178</v>
       </c>
       <c r="F31">
         <v>140.28</v>
       </c>
       <c r="G31">
-        <v>1.528E-2</v>
+        <v>0.01528</v>
       </c>
       <c r="H31">
         <v>0.103912</v>
       </c>
       <c r="I31">
-        <v>5.1900000000000002E-3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.00519</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32">
         <v>1</v>
       </c>
@@ -1349,16 +1323,16 @@
         <v>123.989</v>
       </c>
       <c r="G32">
-        <v>1.4959999999999999E-2</v>
+        <v>0.01496</v>
       </c>
       <c r="H32">
         <v>0.103842</v>
       </c>
       <c r="I32">
-        <v>5.4400000000000004E-3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.00544</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33">
         <v>2</v>
       </c>
@@ -1369,7 +1343,7 @@
         <v>0.2</v>
       </c>
       <c r="D33">
-        <v>159.43299999999999</v>
+        <v>159.433</v>
       </c>
       <c r="E33">
         <v>-14.308</v>
@@ -1378,16 +1352,16 @@
         <v>124.12</v>
       </c>
       <c r="G33">
-        <v>1.4959999999999999E-2</v>
+        <v>0.01496</v>
       </c>
       <c r="H33">
         <v>0.103821</v>
       </c>
       <c r="I33">
-        <v>5.4200000000000003E-3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.00542</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34">
         <v>3</v>
       </c>
@@ -1398,25 +1372,25 @@
         <v>0.2</v>
       </c>
       <c r="D34">
-        <v>159.32900000000001</v>
+        <v>159.329</v>
       </c>
       <c r="E34">
         <v>-14.315</v>
       </c>
       <c r="F34">
-        <v>123.78700000000001</v>
+        <v>123.787</v>
       </c>
       <c r="G34">
-        <v>1.5010000000000001E-2</v>
+        <v>0.01501</v>
       </c>
       <c r="H34">
-        <v>0.10383100000000001</v>
+        <v>0.103831</v>
       </c>
       <c r="I34">
-        <v>5.4200000000000003E-3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.00542</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35">
         <v>1</v>
       </c>
@@ -1427,25 +1401,25 @@
         <v>0.3</v>
       </c>
       <c r="D35">
-        <v>151.46799999999999</v>
+        <v>151.468</v>
       </c>
       <c r="E35">
         <v>-21.448</v>
       </c>
       <c r="F35">
-        <v>110.40600000000001</v>
+        <v>110.406</v>
       </c>
       <c r="G35">
-        <v>1.524E-2</v>
+        <v>0.01524</v>
       </c>
       <c r="H35">
         <v>0.103742</v>
       </c>
       <c r="I35">
-        <v>6.0400000000000002E-3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.00604</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36">
         <v>2</v>
       </c>
@@ -1465,16 +1439,16 @@
         <v>110.28</v>
       </c>
       <c r="G36">
-        <v>1.525E-2</v>
+        <v>0.01525</v>
       </c>
       <c r="H36">
-        <v>0.10376299999999999</v>
+        <v>0.103763</v>
       </c>
       <c r="I36">
-        <v>6.0200000000000002E-3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.00602</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37">
         <v>3</v>
       </c>
@@ -1485,25 +1459,25 @@
         <v>0.3</v>
       </c>
       <c r="D37">
-        <v>151.59299999999999</v>
+        <v>151.593</v>
       </c>
       <c r="E37">
-        <v>-21.449000000000002</v>
+        <v>-21.449</v>
       </c>
       <c r="F37">
-        <v>110.45399999999999</v>
+        <v>110.454</v>
       </c>
       <c r="G37">
-        <v>1.528E-2</v>
+        <v>0.01528</v>
       </c>
       <c r="H37">
         <v>0.103752</v>
       </c>
       <c r="I37">
-        <v>6.0499999999999998E-3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.00605</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38">
         <v>1</v>
       </c>
@@ -1517,22 +1491,22 @@
         <v>143.078</v>
       </c>
       <c r="E38">
-        <v>-28.571999999999999</v>
+        <v>-28.572</v>
       </c>
       <c r="F38">
-        <v>97.063999999999993</v>
+        <v>97.064</v>
       </c>
       <c r="G38">
-        <v>1.5219999999999999E-2</v>
+        <v>0.01522</v>
       </c>
       <c r="H38">
         <v>0.103746</v>
       </c>
       <c r="I38">
-        <v>7.6099999999999996E-3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.00761</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39">
         <v>2</v>
       </c>
@@ -1546,22 +1520,22 @@
         <v>143.107</v>
       </c>
       <c r="E39">
-        <v>-28.571999999999999</v>
+        <v>-28.572</v>
       </c>
       <c r="F39">
-        <v>96.921999999999997</v>
+        <v>96.922</v>
       </c>
       <c r="G39">
-        <v>1.5219999999999999E-2</v>
+        <v>0.01522</v>
       </c>
       <c r="H39">
         <v>0.103741</v>
       </c>
       <c r="I39">
-        <v>7.5900000000000004E-3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.00759</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40">
         <v>3</v>
       </c>
@@ -1572,25 +1546,25 @@
         <v>0.4</v>
       </c>
       <c r="D40">
-        <v>142.88300000000001</v>
+        <v>142.883</v>
       </c>
       <c r="E40">
         <v>-28.567</v>
       </c>
       <c r="F40">
-        <v>96.587999999999994</v>
+        <v>96.588</v>
       </c>
       <c r="G40">
-        <v>1.524E-2</v>
+        <v>0.01524</v>
       </c>
       <c r="H40">
-        <v>0.10374800000000001</v>
+        <v>0.103748</v>
       </c>
       <c r="I40">
-        <v>7.5599999999999999E-3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.00756</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41">
         <v>1</v>
       </c>
@@ -1604,22 +1578,22 @@
         <v>134.221</v>
       </c>
       <c r="E41">
-        <v>-35.692999999999998</v>
+        <v>-35.693</v>
       </c>
       <c r="F41">
-        <v>82.161000000000001</v>
+        <v>82.161</v>
       </c>
       <c r="G41">
-        <v>1.5570000000000001E-2</v>
+        <v>0.01557</v>
       </c>
       <c r="H41">
         <v>0.103695</v>
       </c>
       <c r="I41">
-        <v>8.4100000000000008E-3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.00841</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42">
         <v>2</v>
       </c>
@@ -1636,19 +1610,19 @@
         <v>-35.695</v>
       </c>
       <c r="F42">
-        <v>82.316999999999993</v>
+        <v>82.317</v>
       </c>
       <c r="G42">
-        <v>1.555E-2</v>
+        <v>0.01555</v>
       </c>
       <c r="H42">
         <v>0.10369</v>
       </c>
       <c r="I42">
-        <v>8.3899999999999999E-3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.00839</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43">
         <v>3</v>
       </c>
@@ -1659,25 +1633,25 @@
         <v>0.5</v>
       </c>
       <c r="D43">
-        <v>134.27600000000001</v>
+        <v>134.276</v>
       </c>
       <c r="E43">
-        <v>-35.697000000000003</v>
+        <v>-35.697</v>
       </c>
       <c r="F43">
-        <v>82.602000000000004</v>
+        <v>82.602</v>
       </c>
       <c r="G43">
-        <v>1.558E-2</v>
+        <v>0.01558</v>
       </c>
       <c r="H43">
         <v>0.103686</v>
       </c>
       <c r="I43">
-        <v>8.3899999999999999E-3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.00839</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44">
         <v>1</v>
       </c>
@@ -1688,25 +1662,25 @@
         <v>0.6</v>
       </c>
       <c r="D44">
-        <v>127.22799999999999</v>
+        <v>127.228</v>
       </c>
       <c r="E44">
         <v>-42.82</v>
       </c>
       <c r="F44">
-        <v>77.552000000000007</v>
+        <v>77.552</v>
       </c>
       <c r="G44">
-        <v>1.644E-2</v>
+        <v>0.01644</v>
       </c>
       <c r="H44">
         <v>0.103612</v>
       </c>
       <c r="I44">
-        <v>9.6900000000000007E-3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.00969</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45">
         <v>2</v>
       </c>
@@ -1720,22 +1694,22 @@
         <v>127.274</v>
       </c>
       <c r="E45">
-        <v>-42.811999999999998</v>
+        <v>-42.812</v>
       </c>
       <c r="F45">
-        <v>77.472999999999999</v>
+        <v>77.473</v>
       </c>
       <c r="G45">
-        <v>1.6469999999999999E-2</v>
+        <v>0.01647</v>
       </c>
       <c r="H45">
-        <v>0.10362200000000001</v>
+        <v>0.103622</v>
       </c>
       <c r="I45">
-        <v>9.7199999999999995E-3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.00972</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46">
         <v>3</v>
       </c>
@@ -1746,25 +1720,25 @@
         <v>0.6</v>
       </c>
       <c r="D46">
-        <v>127.18899999999999</v>
+        <v>127.189</v>
       </c>
       <c r="E46">
-        <v>-42.814999999999998</v>
+        <v>-42.815</v>
       </c>
       <c r="F46">
-        <v>77.287000000000006</v>
+        <v>77.287</v>
       </c>
       <c r="G46">
-        <v>1.6469999999999999E-2</v>
+        <v>0.01647</v>
       </c>
       <c r="H46">
         <v>0.103615</v>
       </c>
       <c r="I46">
-        <v>9.7199999999999995E-3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.00972</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47">
         <v>1</v>
       </c>
@@ -1781,19 +1755,19 @@
         <v>-49.927</v>
       </c>
       <c r="F47">
-        <v>63.039000000000001</v>
+        <v>63.039</v>
       </c>
       <c r="G47">
-        <v>1.6930000000000001E-2</v>
+        <v>0.01693</v>
       </c>
       <c r="H47">
-        <v>0.10360800000000001</v>
+        <v>0.103608</v>
       </c>
       <c r="I47">
-        <v>1.137E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.01137</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48">
         <v>2</v>
       </c>
@@ -1807,22 +1781,22 @@
         <v>121.477</v>
       </c>
       <c r="E48">
-        <v>-49.926000000000002</v>
+        <v>-49.926</v>
       </c>
       <c r="F48">
-        <v>62.981000000000002</v>
+        <v>62.981</v>
       </c>
       <c r="G48">
-        <v>1.6899999999999998E-2</v>
+        <v>0.0169</v>
       </c>
       <c r="H48">
         <v>0.103601</v>
       </c>
       <c r="I48">
-        <v>1.1339999999999999E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.01134</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49">
         <v>3</v>
       </c>
@@ -1836,22 +1810,22 @@
         <v>121.407</v>
       </c>
       <c r="E49">
-        <v>-49.924999999999997</v>
+        <v>-49.925</v>
       </c>
       <c r="F49">
-        <v>63.158000000000001</v>
+        <v>63.158</v>
       </c>
       <c r="G49">
-        <v>1.6910000000000001E-2</v>
+        <v>0.01691</v>
       </c>
       <c r="H49">
         <v>0.103592</v>
       </c>
       <c r="I49">
-        <v>1.132E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.01132</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50">
         <v>1</v>
       </c>
@@ -1868,19 +1842,19 @@
         <v>-57.055</v>
       </c>
       <c r="F50">
-        <v>64.534000000000006</v>
+        <v>64.534</v>
       </c>
       <c r="G50">
-        <v>1.7420000000000001E-2</v>
+        <v>0.01742</v>
       </c>
       <c r="H50">
         <v>0.103577</v>
       </c>
       <c r="I50">
-        <v>1.157E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.01157</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51">
         <v>2</v>
       </c>
@@ -1891,25 +1865,25 @@
         <v>0.8</v>
       </c>
       <c r="D51">
-        <v>115.35599999999999</v>
+        <v>115.356</v>
       </c>
       <c r="E51">
-        <v>-57.051000000000002</v>
+        <v>-57.051</v>
       </c>
       <c r="F51">
-        <v>64.465999999999994</v>
+        <v>64.466</v>
       </c>
       <c r="G51">
-        <v>1.7409999999999998E-2</v>
+        <v>0.01741</v>
       </c>
       <c r="H51">
-        <v>0.10358000000000001</v>
+        <v>0.10358</v>
       </c>
       <c r="I51">
-        <v>1.157E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.01157</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52">
         <v>3</v>
       </c>
@@ -1923,22 +1897,22 @@
         <v>115.294</v>
       </c>
       <c r="E52">
-        <v>-57.045000000000002</v>
+        <v>-57.045</v>
       </c>
       <c r="F52">
-        <v>64.343999999999994</v>
+        <v>64.344</v>
       </c>
       <c r="G52">
-        <v>1.7389999999999999E-2</v>
+        <v>0.01739</v>
       </c>
       <c r="H52">
         <v>0.103576</v>
       </c>
       <c r="I52">
-        <v>1.159E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.01159</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53">
         <v>1</v>
       </c>
@@ -1952,22 +1926,22 @@
         <v>107.91</v>
       </c>
       <c r="E53">
-        <v>-64.156000000000006</v>
+        <v>-64.156</v>
       </c>
       <c r="F53">
-        <v>48.290999999999997</v>
+        <v>48.291</v>
       </c>
       <c r="G53">
-        <v>1.779E-2</v>
+        <v>0.01779</v>
       </c>
       <c r="H53">
         <v>0.103508</v>
       </c>
       <c r="I53">
-        <v>1.366E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.01366</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54">
         <v>2</v>
       </c>
@@ -1981,22 +1955,22 @@
         <v>107.943</v>
       </c>
       <c r="E54">
-        <v>-64.149000000000001</v>
+        <v>-64.149</v>
       </c>
       <c r="F54">
         <v>48.192</v>
       </c>
       <c r="G54">
-        <v>1.7819999999999999E-2</v>
+        <v>0.01782</v>
       </c>
       <c r="H54">
         <v>0.103515</v>
       </c>
       <c r="I54">
-        <v>1.367E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.01367</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55">
         <v>3</v>
       </c>
@@ -2007,25 +1981,25 @@
         <v>0.9</v>
       </c>
       <c r="D55">
-        <v>107.95099999999999</v>
+        <v>107.951</v>
       </c>
       <c r="E55">
-        <v>-64.152000000000001</v>
+        <v>-64.152</v>
       </c>
       <c r="F55">
-        <v>48.051000000000002</v>
+        <v>48.051</v>
       </c>
       <c r="G55">
-        <v>1.7819999999999999E-2</v>
+        <v>0.01782</v>
       </c>
       <c r="H55">
         <v>0.103503</v>
       </c>
       <c r="I55">
-        <v>1.366E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.01366</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56">
         <v>1</v>
       </c>
@@ -2039,22 +2013,22 @@
         <v>101.807</v>
       </c>
       <c r="E56">
-        <v>-71.239000000000004</v>
+        <v>-71.239</v>
       </c>
       <c r="F56">
-        <v>46.268999999999998</v>
+        <v>46.269</v>
       </c>
       <c r="G56">
-        <v>1.9009999999999999E-2</v>
+        <v>0.01901</v>
       </c>
       <c r="H56">
-        <v>0.10345500000000001</v>
+        <v>0.103455</v>
       </c>
       <c r="I56">
-        <v>1.3339999999999999E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.01334</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57">
         <v>2</v>
       </c>
@@ -2065,25 +2039,25 @@
         <v>1</v>
       </c>
       <c r="D57">
-        <v>101.86799999999999</v>
+        <v>101.868</v>
       </c>
       <c r="E57">
-        <v>-71.242000000000004</v>
+        <v>-71.242</v>
       </c>
       <c r="F57">
-        <v>46.323999999999998</v>
+        <v>46.324</v>
       </c>
       <c r="G57">
-        <v>1.8970000000000001E-2</v>
+        <v>0.01897</v>
       </c>
       <c r="H57">
-        <v>0.10345500000000001</v>
+        <v>0.103455</v>
       </c>
       <c r="I57">
-        <v>1.3350000000000001E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.01335</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58">
         <v>3</v>
       </c>
@@ -2097,22 +2071,22 @@
         <v>101.783</v>
       </c>
       <c r="E58">
-        <v>-71.236000000000004</v>
+        <v>-71.236</v>
       </c>
       <c r="F58">
-        <v>46.273000000000003</v>
+        <v>46.273</v>
       </c>
       <c r="G58">
-        <v>1.8929999999999999E-2</v>
+        <v>0.01893</v>
       </c>
       <c r="H58">
         <v>0.103466</v>
       </c>
       <c r="I58">
-        <v>1.337E-2</v>
+        <v>0.01337</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>